--- a/socialstyrelsen/statistik-covid19-avlidna_2021-02-14.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2021-02-14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\1. Att publicera på antal avlidna i covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="1">Definitioner!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="970">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1050,9 +1050,6 @@
     <t>** Ofullständiga uppgifter för Uppsala för särskilt boende och hemtjänst</t>
   </si>
   <si>
-    <t>03 Uppsala**</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -3156,13 +3153,19 @@
     <t>Sorsele**</t>
   </si>
   <si>
-    <t>18 Örebro**</t>
-  </si>
-  <si>
     <t>Indelningarna nedan baseras på samkörning med registret över socialtjänstinsatser till äldre och personer med funktionsnedsättning 2019-2020. Registret uppdateras månatligen, mätning månaden innan dödsdatum för varje individ har använts.</t>
   </si>
   <si>
     <t xml:space="preserve">Dessa uppgifter bygger på alla inkomna intyg men intyg för alla avlidna har inte inkommit ännu. Dessa uppgifter är alltså högst preliminära.  Det slutgiltiga antalet kommer att förändras allt eftersom det inkommer fler dödsorsaksintyg. Uppgifter från Uppsala, Örebro, Sorsele och Boden för särskilt boende och hemtjänst är ofullständiga. </t>
+  </si>
+  <si>
+    <t>03 Uppsala</t>
+  </si>
+  <si>
+    <t>Örebro**</t>
+  </si>
+  <si>
+    <t>18 Örebro</t>
   </si>
 </sst>
 </file>
@@ -5792,6 +5795,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6088,6 +6092,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6581,6 +6586,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6882,6 +6888,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20397,9 +20404,7 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -20803,7 +20808,7 @@
     </row>
     <row r="4" spans="2:6" s="81" customFormat="1" ht="30.95" customHeight="1">
       <c r="B4" s="276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="277"/>
       <c r="D4" s="277"/>
@@ -20857,7 +20862,7 @@
     </row>
     <row r="10" spans="2:6" s="81" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="279" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="280"/>
       <c r="D10" s="280"/>
@@ -20866,7 +20871,7 @@
     </row>
     <row r="11" spans="2:6" s="81" customFormat="1" ht="44.25" customHeight="1">
       <c r="B11" s="279" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C11" s="280"/>
       <c r="D11" s="280"/>
@@ -21217,7 +21222,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="139"/>
       <c r="B10" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2">
         <v>1504</v>
@@ -21243,7 +21248,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="139"/>
       <c r="B11" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="2">
         <v>207</v>
@@ -21269,7 +21274,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="139"/>
       <c r="B12" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="2">
         <v>145</v>
@@ -21295,7 +21300,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="139"/>
       <c r="B13" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="2">
         <v>142</v>
@@ -21321,7 +21326,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="139"/>
       <c r="B14" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="2">
         <v>140</v>
@@ -21347,7 +21352,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="139"/>
       <c r="B15" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2">
         <v>127</v>
@@ -21373,7 +21378,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="139"/>
       <c r="B16" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="2">
         <v>125</v>
@@ -21399,7 +21404,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="139"/>
       <c r="B17" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="2">
         <v>122</v>
@@ -21425,7 +21430,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="139"/>
       <c r="B18" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="2">
         <v>114</v>
@@ -21451,7 +21456,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="139"/>
       <c r="B19" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2">
         <v>96</v>
@@ -21477,7 +21482,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="139"/>
       <c r="B20" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="2">
         <v>93</v>
@@ -21503,7 +21508,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="139"/>
       <c r="B21" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="2">
         <v>92</v>
@@ -21529,7 +21534,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="139"/>
       <c r="B22" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="2">
         <v>89</v>
@@ -21555,7 +21560,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="139"/>
       <c r="B23" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="2">
         <v>88</v>
@@ -21581,7 +21586,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="139"/>
       <c r="B24" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="2">
         <v>82</v>
@@ -21607,7 +21612,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="139"/>
       <c r="B25" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="2">
         <v>67</v>
@@ -21633,7 +21638,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="139"/>
       <c r="B26" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="2">
         <v>65</v>
@@ -21659,7 +21664,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="139"/>
       <c r="B27" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -21685,7 +21690,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="139"/>
       <c r="B28" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2">
         <v>40</v>
@@ -21711,7 +21716,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="139"/>
       <c r="B29" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2">
         <v>40</v>
@@ -21726,7 +21731,7 @@
         <v>62.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="60" t="s">
         <v>127</v>
@@ -21737,7 +21742,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="139"/>
       <c r="B30" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2">
         <v>36</v>
@@ -21763,7 +21768,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="139"/>
       <c r="B31" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2">
         <v>31</v>
@@ -21789,7 +21794,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="139"/>
       <c r="B32" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2">
         <v>27</v>
@@ -21815,7 +21820,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="139"/>
       <c r="B33" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2">
         <v>22</v>
@@ -21830,7 +21835,7 @@
         <v>27.272727272727298</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>127</v>
@@ -21841,7 +21846,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="139"/>
       <c r="B34" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2">
         <v>14</v>
@@ -21850,7 +21855,7 @@
         <v>0.39292730844793999</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="60" t="s">
         <v>127</v>
@@ -21867,7 +21872,7 @@
     <row r="35" spans="1:11" ht="14.25" thickBot="1">
       <c r="A35" s="139"/>
       <c r="B35" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -21876,7 +21881,7 @@
         <v>0.14033118158855001</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="60" t="s">
         <v>127</v>
@@ -21892,7 +21897,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
-        <v>264</v>
+        <v>967</v>
       </c>
       <c r="B36" s="265" t="s">
         <v>261</v>
@@ -21921,7 +21926,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="139"/>
       <c r="B37" s="20" t="s">
-        <v>962</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2">
         <v>229</v>
@@ -21947,7 +21952,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="139"/>
       <c r="B38" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2">
         <v>64</v>
@@ -21973,7 +21978,7 @@
     <row r="39" spans="1:11">
       <c r="A39" s="139"/>
       <c r="B39" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2">
         <v>35</v>
@@ -21999,7 +22004,7 @@
     <row r="40" spans="1:11">
       <c r="A40" s="139"/>
       <c r="B40" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2">
         <v>28</v>
@@ -22025,7 +22030,7 @@
     <row r="41" spans="1:11">
       <c r="A41" s="139"/>
       <c r="B41" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2">
         <v>22</v>
@@ -22051,7 +22056,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="139"/>
       <c r="B42" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2">
         <v>15</v>
@@ -22066,7 +22071,7 @@
         <v>60</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H42" s="60" t="s">
         <v>127</v>
@@ -22077,7 +22082,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="139"/>
       <c r="B43" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2">
         <v>12</v>
@@ -22103,7 +22108,7 @@
     <row r="44" spans="1:11" ht="14.25" thickBot="1">
       <c r="A44" s="139"/>
       <c r="B44" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2">
         <v>7</v>
@@ -22118,7 +22123,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>127</v>
@@ -22157,7 +22162,7 @@
     <row r="46" spans="1:11">
       <c r="A46" s="139"/>
       <c r="B46" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2">
         <v>136</v>
@@ -22183,7 +22188,7 @@
     <row r="47" spans="1:11">
       <c r="A47" s="139"/>
       <c r="B47" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2">
         <v>83</v>
@@ -22209,7 +22214,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="139"/>
       <c r="B48" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2">
         <v>55</v>
@@ -22235,7 +22240,7 @@
     <row r="49" spans="1:11">
       <c r="A49" s="139"/>
       <c r="B49" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -22261,7 +22266,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="139"/>
       <c r="B50" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2">
         <v>22</v>
@@ -22270,13 +22275,13 @@
         <v>5.7142857142857197</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H50" s="60" t="s">
         <v>127</v>
@@ -22287,7 +22292,7 @@
     <row r="51" spans="1:11">
       <c r="A51" s="139"/>
       <c r="B51" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2">
         <v>19</v>
@@ -22296,7 +22301,7 @@
         <v>4.9350649350649398</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="60" t="s">
         <v>127</v>
@@ -22313,7 +22318,7 @@
     <row r="52" spans="1:11">
       <c r="A52" s="139"/>
       <c r="B52" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2">
         <v>17</v>
@@ -22339,7 +22344,7 @@
     <row r="53" spans="1:11">
       <c r="A53" s="139"/>
       <c r="B53" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2">
         <v>16</v>
@@ -22354,7 +22359,7 @@
         <v>37.5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" s="60" t="s">
         <v>127</v>
@@ -22365,7 +22370,7 @@
     <row r="54" spans="1:11" ht="14.25" thickBot="1">
       <c r="A54" s="139"/>
       <c r="B54" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
@@ -22419,7 +22424,7 @@
     <row r="56" spans="1:11">
       <c r="A56" s="139"/>
       <c r="B56" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C56" s="2">
         <v>188</v>
@@ -22445,7 +22450,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="139"/>
       <c r="B57" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2">
         <v>169</v>
@@ -22471,7 +22476,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="139"/>
       <c r="B58" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C58" s="2">
         <v>39</v>
@@ -22497,7 +22502,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="139"/>
       <c r="B59" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2">
         <v>31</v>
@@ -22523,7 +22528,7 @@
     <row r="60" spans="1:11">
       <c r="A60" s="139"/>
       <c r="B60" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C60" s="2">
         <v>27</v>
@@ -22549,7 +22554,7 @@
     <row r="61" spans="1:11">
       <c r="A61" s="139"/>
       <c r="B61" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C61" s="2">
         <v>14</v>
@@ -22575,7 +22580,7 @@
     <row r="62" spans="1:11">
       <c r="A62" s="139"/>
       <c r="B62" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2">
         <v>13</v>
@@ -22601,7 +22606,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="139"/>
       <c r="B63" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2">
         <v>11</v>
@@ -22627,7 +22632,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="139"/>
       <c r="B64" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2">
         <v>10</v>
@@ -22642,7 +22647,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>127</v>
@@ -22653,7 +22658,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="139"/>
       <c r="B65" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="2">
         <v>9</v>
@@ -22668,7 +22673,7 @@
         <v>55.5555555555556</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>127</v>
@@ -22679,7 +22684,7 @@
     <row r="66" spans="1:11">
       <c r="A66" s="139"/>
       <c r="B66" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="2">
         <v>8</v>
@@ -22694,7 +22699,7 @@
         <v>62.5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>127</v>
@@ -22705,10 +22710,10 @@
     <row r="67" spans="1:11">
       <c r="A67" s="139"/>
       <c r="B67" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D67" s="60" t="s">
         <v>127</v>
@@ -22731,10 +22736,10 @@
     <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="139"/>
       <c r="B68" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D68" s="60" t="s">
         <v>127</v>
@@ -22746,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>127</v>
@@ -22785,7 +22790,7 @@
     <row r="70" spans="1:11">
       <c r="A70" s="139"/>
       <c r="B70" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="2">
         <v>151</v>
@@ -22811,7 +22816,7 @@
     <row r="71" spans="1:11">
       <c r="A71" s="139"/>
       <c r="B71" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="2">
         <v>60</v>
@@ -22837,7 +22842,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="139"/>
       <c r="B72" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2">
         <v>55</v>
@@ -22863,7 +22868,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="139"/>
       <c r="B73" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" s="2">
         <v>43</v>
@@ -22889,7 +22894,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="139"/>
       <c r="B74" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2">
         <v>34</v>
@@ -22915,7 +22920,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="139"/>
       <c r="B75" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C75" s="2">
         <v>32</v>
@@ -22941,7 +22946,7 @@
     <row r="76" spans="1:11">
       <c r="A76" s="139"/>
       <c r="B76" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2">
         <v>19</v>
@@ -22956,7 +22961,7 @@
         <v>57.894736842105303</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" s="60" t="s">
         <v>127</v>
@@ -22967,7 +22972,7 @@
     <row r="77" spans="1:11">
       <c r="A77" s="139"/>
       <c r="B77" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C77" s="2">
         <v>14</v>
@@ -22993,7 +22998,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="139"/>
       <c r="B78" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
@@ -23008,7 +23013,7 @@
         <v>40</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" s="60" t="s">
         <v>127</v>
@@ -23019,7 +23024,7 @@
     <row r="79" spans="1:11">
       <c r="A79" s="139"/>
       <c r="B79" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2">
         <v>10</v>
@@ -23045,7 +23050,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="139"/>
       <c r="B80" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C80" s="2">
         <v>9</v>
@@ -23054,7 +23059,7 @@
         <v>2.0089285714285698</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" s="60" t="s">
         <v>127</v>
@@ -23071,16 +23076,16 @@
     <row r="81" spans="1:11">
       <c r="A81" s="139"/>
       <c r="B81" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F81" s="60" t="s">
         <v>127</v>
@@ -23097,16 +23102,16 @@
     <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="139"/>
       <c r="B82" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F82" s="60" t="s">
         <v>127</v>
@@ -23151,7 +23156,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="139"/>
       <c r="B84" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
@@ -23177,7 +23182,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="139"/>
       <c r="B85" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" s="2">
         <v>36</v>
@@ -23203,7 +23208,7 @@
     <row r="86" spans="1:11">
       <c r="A86" s="139"/>
       <c r="B86" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" s="2">
         <v>36</v>
@@ -23229,7 +23234,7 @@
     <row r="87" spans="1:11">
       <c r="A87" s="139"/>
       <c r="B87" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C87" s="2">
         <v>25</v>
@@ -23255,7 +23260,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="139"/>
       <c r="B88" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88" s="2">
         <v>14</v>
@@ -23264,7 +23269,7 @@
         <v>5.5776892430278897</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="60" t="s">
         <v>127</v>
@@ -23281,7 +23286,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="139"/>
       <c r="B89" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C89" s="2">
         <v>11</v>
@@ -23307,7 +23312,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="139"/>
       <c r="B90" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C90" s="2">
         <v>9</v>
@@ -23316,7 +23321,7 @@
         <v>3.58565737051793</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="60" t="s">
         <v>127</v>
@@ -23333,7 +23338,7 @@
     <row r="91" spans="1:11" ht="14.25" thickBot="1">
       <c r="A91" s="139"/>
       <c r="B91" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C91" s="2">
         <v>9</v>
@@ -23342,7 +23347,7 @@
         <v>3.58565737051793</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F91" s="60" t="s">
         <v>127</v>
@@ -23387,7 +23392,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="139"/>
       <c r="B93" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" s="2">
         <v>36</v>
@@ -23413,7 +23418,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="139"/>
       <c r="B94" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="2">
         <v>33</v>
@@ -23439,7 +23444,7 @@
     <row r="95" spans="1:11">
       <c r="A95" s="139"/>
       <c r="B95" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C95" s="2">
         <v>30</v>
@@ -23465,7 +23470,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="139"/>
       <c r="B96" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C96" s="2">
         <v>23</v>
@@ -23491,7 +23496,7 @@
     <row r="97" spans="1:11">
       <c r="A97" s="139"/>
       <c r="B97" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C97" s="2">
         <v>21</v>
@@ -23506,7 +23511,7 @@
         <v>38.095238095238102</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="60" t="s">
         <v>127</v>
@@ -23517,7 +23522,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="139"/>
       <c r="B98" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" s="2">
         <v>15</v>
@@ -23543,7 +23548,7 @@
     <row r="99" spans="1:11">
       <c r="A99" s="139"/>
       <c r="B99" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C99" s="2">
         <v>14</v>
@@ -23558,7 +23563,7 @@
         <v>64.285714285714306</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H99" s="60" t="s">
         <v>127</v>
@@ -23569,7 +23574,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="139"/>
       <c r="B100" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C100" s="2">
         <v>10</v>
@@ -23578,13 +23583,13 @@
         <v>5</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="60" t="s">
         <v>127</v>
@@ -23595,7 +23600,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="139"/>
       <c r="B101" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C101" s="2">
         <v>7</v>
@@ -23604,7 +23609,7 @@
         <v>3.5</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" s="60" t="s">
         <v>127</v>
@@ -23621,7 +23626,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="139"/>
       <c r="B102" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C102" s="2">
         <v>5</v>
@@ -23630,13 +23635,13 @@
         <v>2.5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="60" t="s">
         <v>127</v>
@@ -23647,22 +23652,22 @@
     <row r="103" spans="1:11">
       <c r="A103" s="139"/>
       <c r="B103" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D103" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F103" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H103" s="60" t="s">
         <v>127</v>
@@ -23673,10 +23678,10 @@
     <row r="104" spans="1:11" ht="14.25" thickBot="1">
       <c r="A104" s="139"/>
       <c r="B104" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D104" s="60" t="s">
         <v>127</v>
@@ -23688,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H104" s="60" t="s">
         <v>127</v>
@@ -23727,7 +23732,7 @@
     <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="139"/>
       <c r="B106" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106" s="2">
         <v>33</v>
@@ -23781,7 +23786,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="139"/>
       <c r="B108" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C108" s="2">
         <v>35</v>
@@ -23796,7 +23801,7 @@
         <v>68.571428571428598</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>127</v>
@@ -23807,7 +23812,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="139"/>
       <c r="B109" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C109" s="2">
         <v>22</v>
@@ -23822,7 +23827,7 @@
         <v>72.727272727272805</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>127</v>
@@ -23833,7 +23838,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="139"/>
       <c r="B110" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C110" s="2">
         <v>17</v>
@@ -23842,7 +23847,7 @@
         <v>17.3469387755102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F110" s="60" t="s">
         <v>127</v>
@@ -23859,7 +23864,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="139"/>
       <c r="B111" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" s="2">
         <v>14</v>
@@ -23868,13 +23873,13 @@
         <v>14.285714285714301</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F111" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>127</v>
@@ -23885,7 +23890,7 @@
     <row r="112" spans="1:11" ht="14.25" thickBot="1">
       <c r="A112" s="139"/>
       <c r="B112" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C112" s="2">
         <v>10</v>
@@ -23900,7 +23905,7 @@
         <v>90</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>127</v>
@@ -23939,7 +23944,7 @@
     <row r="114" spans="1:11">
       <c r="A114" s="139"/>
       <c r="B114" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="2">
         <v>363</v>
@@ -23965,7 +23970,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="139"/>
       <c r="B115" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C115" s="2">
         <v>209</v>
@@ -23991,7 +23996,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="139"/>
       <c r="B116" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C116" s="2">
         <v>89</v>
@@ -24017,7 +24022,7 @@
     <row r="117" spans="1:11">
       <c r="A117" s="139"/>
       <c r="B117" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C117" s="2">
         <v>72</v>
@@ -24043,7 +24048,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="139"/>
       <c r="B118" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C118" s="2">
         <v>51</v>
@@ -24069,7 +24074,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="139"/>
       <c r="B119" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C119" s="2">
         <v>46</v>
@@ -24095,7 +24100,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="139"/>
       <c r="B120" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C120" s="2">
         <v>44</v>
@@ -24121,7 +24126,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="139"/>
       <c r="B121" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2">
         <v>37</v>
@@ -24147,7 +24152,7 @@
     <row r="122" spans="1:11">
       <c r="A122" s="139"/>
       <c r="B122" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C122" s="2">
         <v>36</v>
@@ -24173,7 +24178,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="139"/>
       <c r="B123" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C123" s="2">
         <v>29</v>
@@ -24199,7 +24204,7 @@
     <row r="124" spans="1:11">
       <c r="A124" s="139"/>
       <c r="B124" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C124" s="2">
         <v>26</v>
@@ -24225,7 +24230,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="139"/>
       <c r="B125" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C125" s="2">
         <v>24</v>
@@ -24240,7 +24245,7 @@
         <v>58.3333333333333</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H125" s="60" t="s">
         <v>127</v>
@@ -24251,7 +24256,7 @@
     <row r="126" spans="1:11">
       <c r="A126" s="139"/>
       <c r="B126" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C126" s="2">
         <v>21</v>
@@ -24266,7 +24271,7 @@
         <v>76.190476190476204</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H126" s="60" t="s">
         <v>127</v>
@@ -24277,7 +24282,7 @@
     <row r="127" spans="1:11">
       <c r="A127" s="139"/>
       <c r="B127" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C127" s="2">
         <v>20</v>
@@ -24292,7 +24297,7 @@
         <v>45</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H127" s="60" t="s">
         <v>127</v>
@@ -24303,7 +24308,7 @@
     <row r="128" spans="1:11">
       <c r="A128" s="139"/>
       <c r="B128" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C128" s="2">
         <v>19</v>
@@ -24329,7 +24334,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="139"/>
       <c r="B129" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C129" s="2">
         <v>17</v>
@@ -24355,7 +24360,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="139"/>
       <c r="B130" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C130" s="2">
         <v>16</v>
@@ -24381,7 +24386,7 @@
     <row r="131" spans="1:11">
       <c r="A131" s="139"/>
       <c r="B131" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C131" s="2">
         <v>16</v>
@@ -24407,7 +24412,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="139"/>
       <c r="B132" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C132" s="2">
         <v>14</v>
@@ -24422,7 +24427,7 @@
         <v>35.714285714285701</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H132" s="60" t="s">
         <v>127</v>
@@ -24433,7 +24438,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="139"/>
       <c r="B133" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C133" s="2">
         <v>13</v>
@@ -24459,7 +24464,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="139"/>
       <c r="B134" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C134" s="2">
         <v>12</v>
@@ -24474,7 +24479,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="60" t="s">
         <v>127</v>
@@ -24485,7 +24490,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="139"/>
       <c r="B135" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C135" s="2">
         <v>11</v>
@@ -24494,7 +24499,7 @@
         <v>0.86682427107959004</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F135" s="60" t="s">
         <v>127</v>
@@ -24511,7 +24516,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="139"/>
       <c r="B136" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C136" s="2">
         <v>11</v>
@@ -24520,13 +24525,13 @@
         <v>0.86682427107959004</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F136" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="60" t="s">
         <v>127</v>
@@ -24537,7 +24542,7 @@
     <row r="137" spans="1:11">
       <c r="A137" s="139"/>
       <c r="B137" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C137" s="2">
         <v>10</v>
@@ -24546,7 +24551,7 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F137" s="60" t="s">
         <v>127</v>
@@ -24563,7 +24568,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="139"/>
       <c r="B138" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C138" s="2">
         <v>10</v>
@@ -24572,13 +24577,13 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H138" s="60" t="s">
         <v>127</v>
@@ -24589,7 +24594,7 @@
     <row r="139" spans="1:11">
       <c r="A139" s="139"/>
       <c r="B139" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -24598,7 +24603,7 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F139" s="60" t="s">
         <v>127</v>
@@ -24615,7 +24620,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="139"/>
       <c r="B140" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C140" s="2">
         <v>9</v>
@@ -24624,7 +24629,7 @@
         <v>0.70921985815602995</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F140" s="60" t="s">
         <v>127</v>
@@ -24641,7 +24646,7 @@
     <row r="141" spans="1:11">
       <c r="A141" s="139"/>
       <c r="B141" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C141" s="2">
         <v>9</v>
@@ -24656,7 +24661,7 @@
         <v>44.4444444444444</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141" s="60" t="s">
         <v>127</v>
@@ -24667,7 +24672,7 @@
     <row r="142" spans="1:11">
       <c r="A142" s="139"/>
       <c r="B142" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C142" s="2">
         <v>7</v>
@@ -24676,13 +24681,13 @@
         <v>0.55161544523246997</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F142" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H142" s="60" t="s">
         <v>127</v>
@@ -24693,7 +24698,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="139"/>
       <c r="B143" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C143" s="2">
         <v>6</v>
@@ -24702,13 +24707,13 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F143" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H143" s="60" t="s">
         <v>127</v>
@@ -24719,7 +24724,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="139"/>
       <c r="B144" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C144" s="2">
         <v>6</v>
@@ -24728,13 +24733,13 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F144" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H144" s="60" t="s">
         <v>127</v>
@@ -24745,22 +24750,22 @@
     <row r="145" spans="1:11">
       <c r="A145" s="139"/>
       <c r="B145" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D145" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F145" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H145" s="60" t="s">
         <v>127</v>
@@ -24771,22 +24776,22 @@
     <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="139"/>
       <c r="B146" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D146" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F146" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H146" s="60" t="s">
         <v>127</v>
@@ -24825,7 +24830,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="139"/>
       <c r="B148" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C148" s="2">
         <v>76</v>
@@ -24851,7 +24856,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="139"/>
       <c r="B149" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C149" s="2">
         <v>52</v>
@@ -24877,7 +24882,7 @@
     <row r="150" spans="1:11">
       <c r="A150" s="139"/>
       <c r="B150" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C150" s="2">
         <v>52</v>
@@ -24903,7 +24908,7 @@
     <row r="151" spans="1:11">
       <c r="A151" s="139"/>
       <c r="B151" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C151" s="2">
         <v>31</v>
@@ -24912,7 +24917,7 @@
         <v>13.2478632478633</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F151" s="60" t="s">
         <v>127</v>
@@ -24930,10 +24935,10 @@
     <row r="152" spans="1:11">
       <c r="A152" s="139"/>
       <c r="B152" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D152" s="60" t="s">
         <v>127</v>
@@ -24945,7 +24950,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H152" s="60" t="s">
         <v>127</v>
@@ -24956,22 +24961,22 @@
     <row r="153" spans="1:11" ht="14.25" thickBot="1">
       <c r="A153" s="139"/>
       <c r="B153" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D153" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F153" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H153" s="60" t="s">
         <v>127</v>
@@ -25010,7 +25015,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="139"/>
       <c r="B155" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C155" s="2">
         <v>722</v>
@@ -25036,7 +25041,7 @@
     <row r="156" spans="1:11">
       <c r="A156" s="139"/>
       <c r="B156" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C156" s="2">
         <v>158</v>
@@ -25062,7 +25067,7 @@
     <row r="157" spans="1:11">
       <c r="A157" s="139"/>
       <c r="B157" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C157" s="2">
         <v>80</v>
@@ -25088,7 +25093,7 @@
     <row r="158" spans="1:11">
       <c r="A158" s="139"/>
       <c r="B158" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" s="2">
         <v>73</v>
@@ -25114,7 +25119,7 @@
     <row r="159" spans="1:11">
       <c r="A159" s="139"/>
       <c r="B159" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C159" s="2">
         <v>69</v>
@@ -25140,7 +25145,7 @@
     <row r="160" spans="1:11">
       <c r="A160" s="139"/>
       <c r="B160" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C160" s="2">
         <v>64</v>
@@ -25166,7 +25171,7 @@
     <row r="161" spans="1:11">
       <c r="A161" s="139"/>
       <c r="B161" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C161" s="2">
         <v>60</v>
@@ -25192,7 +25197,7 @@
     <row r="162" spans="1:11">
       <c r="A162" s="139"/>
       <c r="B162" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C162" s="2">
         <v>59</v>
@@ -25218,7 +25223,7 @@
     <row r="163" spans="1:11">
       <c r="A163" s="139"/>
       <c r="B163" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C163" s="2">
         <v>40</v>
@@ -25244,7 +25249,7 @@
     <row r="164" spans="1:11">
       <c r="A164" s="139"/>
       <c r="B164" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C164" s="2">
         <v>37</v>
@@ -25270,7 +25275,7 @@
     <row r="165" spans="1:11">
       <c r="A165" s="139"/>
       <c r="B165" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C165" s="2">
         <v>37</v>
@@ -25296,7 +25301,7 @@
     <row r="166" spans="1:11">
       <c r="A166" s="139"/>
       <c r="B166" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C166" s="2">
         <v>36</v>
@@ -25322,7 +25327,7 @@
     <row r="167" spans="1:11">
       <c r="A167" s="139"/>
       <c r="B167" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C167" s="2">
         <v>36</v>
@@ -25348,7 +25353,7 @@
     <row r="168" spans="1:11">
       <c r="A168" s="139"/>
       <c r="B168" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C168" s="2">
         <v>36</v>
@@ -25374,7 +25379,7 @@
     <row r="169" spans="1:11">
       <c r="A169" s="139"/>
       <c r="B169" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C169" s="2">
         <v>23</v>
@@ -25400,7 +25405,7 @@
     <row r="170" spans="1:11">
       <c r="A170" s="139"/>
       <c r="B170" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C170" s="2">
         <v>22</v>
@@ -25426,7 +25431,7 @@
     <row r="171" spans="1:11">
       <c r="A171" s="139"/>
       <c r="B171" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C171" s="2">
         <v>22</v>
@@ -25452,7 +25457,7 @@
     <row r="172" spans="1:11">
       <c r="A172" s="139"/>
       <c r="B172" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C172" s="2">
         <v>21</v>
@@ -25478,7 +25483,7 @@
     <row r="173" spans="1:11">
       <c r="A173" s="139"/>
       <c r="B173" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C173" s="2">
         <v>17</v>
@@ -25487,7 +25492,7 @@
         <v>0.90763481046450001</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F173" s="60" t="s">
         <v>127</v>
@@ -25504,7 +25509,7 @@
     <row r="174" spans="1:11">
       <c r="A174" s="139"/>
       <c r="B174" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C174" s="2">
         <v>16</v>
@@ -25513,7 +25518,7 @@
         <v>0.85424452749599999</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F174" s="60" t="s">
         <v>127</v>
@@ -25530,7 +25535,7 @@
     <row r="175" spans="1:11">
       <c r="A175" s="139"/>
       <c r="B175" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C175" s="2">
         <v>15</v>
@@ -25545,7 +25550,7 @@
         <v>80</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H175" s="60" t="s">
         <v>127</v>
@@ -25556,7 +25561,7 @@
     <row r="176" spans="1:11">
       <c r="A176" s="139"/>
       <c r="B176" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C176" s="2">
         <v>14</v>
@@ -25582,7 +25587,7 @@
     <row r="177" spans="1:11">
       <c r="A177" s="139"/>
       <c r="B177" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C177" s="2">
         <v>14</v>
@@ -25608,7 +25613,7 @@
     <row r="178" spans="1:11">
       <c r="A178" s="139"/>
       <c r="B178" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C178" s="2">
         <v>14</v>
@@ -25634,7 +25639,7 @@
     <row r="179" spans="1:11">
       <c r="A179" s="139"/>
       <c r="B179" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C179" s="2">
         <v>13</v>
@@ -25643,7 +25648,7 @@
         <v>0.69407367859049995</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F179" s="60" t="s">
         <v>127</v>
@@ -25660,7 +25665,7 @@
     <row r="180" spans="1:11">
       <c r="A180" s="139"/>
       <c r="B180" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C180" s="2">
         <v>12</v>
@@ -25675,7 +25680,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H180" s="60" t="s">
         <v>127</v>
@@ -25686,7 +25691,7 @@
     <row r="181" spans="1:11">
       <c r="A181" s="139"/>
       <c r="B181" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C181" s="2">
         <v>12</v>
@@ -25701,7 +25706,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H181" s="60" t="s">
         <v>127</v>
@@ -25712,7 +25717,7 @@
     <row r="182" spans="1:11">
       <c r="A182" s="139"/>
       <c r="B182" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C182" s="2">
         <v>12</v>
@@ -25721,7 +25726,7 @@
         <v>0.64068339562200005</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F182" s="60" t="s">
         <v>127</v>
@@ -25738,7 +25743,7 @@
     <row r="183" spans="1:11">
       <c r="A183" s="139"/>
       <c r="B183" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C183" s="2">
         <v>11</v>
@@ -25753,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H183" s="60" t="s">
         <v>127</v>
@@ -25764,7 +25769,7 @@
     <row r="184" spans="1:11">
       <c r="A184" s="139"/>
       <c r="B184" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C184" s="2">
         <v>10</v>
@@ -25773,13 +25778,13 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F184" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H184" s="60" t="s">
         <v>127</v>
@@ -25790,7 +25795,7 @@
     <row r="185" spans="1:11">
       <c r="A185" s="139"/>
       <c r="B185" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C185" s="2">
         <v>10</v>
@@ -25799,13 +25804,13 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F185" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H185" s="60" t="s">
         <v>127</v>
@@ -25816,7 +25821,7 @@
     <row r="186" spans="1:11">
       <c r="A186" s="139"/>
       <c r="B186" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C186" s="2">
         <v>10</v>
@@ -25825,7 +25830,7 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F186" s="60" t="s">
         <v>127</v>
@@ -25842,7 +25847,7 @@
     <row r="187" spans="1:11">
       <c r="A187" s="139"/>
       <c r="B187" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C187" s="2">
         <v>9</v>
@@ -25851,13 +25856,13 @@
         <v>0.48051254671650001</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F187" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H187" s="60" t="s">
         <v>127</v>
@@ -25868,7 +25873,7 @@
     <row r="188" spans="1:11">
       <c r="A188" s="139"/>
       <c r="B188" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C188" s="2">
         <v>9</v>
@@ -25877,7 +25882,7 @@
         <v>0.48051254671650001</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F188" s="60" t="s">
         <v>127</v>
@@ -25894,7 +25899,7 @@
     <row r="189" spans="1:11">
       <c r="A189" s="139"/>
       <c r="B189" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C189" s="2">
         <v>9</v>
@@ -25909,7 +25914,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H189" s="60" t="s">
         <v>127</v>
@@ -25920,7 +25925,7 @@
     <row r="190" spans="1:11">
       <c r="A190" s="139"/>
       <c r="B190" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C190" s="2">
         <v>8</v>
@@ -25929,13 +25934,13 @@
         <v>0.427122263748</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F190" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H190" s="60" t="s">
         <v>127</v>
@@ -25946,7 +25951,7 @@
     <row r="191" spans="1:11">
       <c r="A191" s="139"/>
       <c r="B191" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C191" s="2">
         <v>8</v>
@@ -25961,7 +25966,7 @@
         <v>50</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H191" s="60" t="s">
         <v>127</v>
@@ -25972,7 +25977,7 @@
     <row r="192" spans="1:11">
       <c r="A192" s="139"/>
       <c r="B192" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C192" s="2">
         <v>7</v>
@@ -25998,7 +26003,7 @@
     <row r="193" spans="1:11">
       <c r="A193" s="139"/>
       <c r="B193" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C193" s="2">
         <v>7</v>
@@ -26007,13 +26012,13 @@
         <v>0.37373198077949998</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H193" s="60" t="s">
         <v>127</v>
@@ -26024,7 +26029,7 @@
     <row r="194" spans="1:11">
       <c r="A194" s="139"/>
       <c r="B194" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C194" s="2">
         <v>7</v>
@@ -26033,13 +26038,13 @@
         <v>0.37373198077949998</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F194" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H194" s="60" t="s">
         <v>127</v>
@@ -26050,7 +26055,7 @@
     <row r="195" spans="1:11">
       <c r="A195" s="139"/>
       <c r="B195" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C195" s="2">
         <v>6</v>
@@ -26059,13 +26064,13 @@
         <v>0.32034169781100003</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F195" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H195" s="60" t="s">
         <v>127</v>
@@ -26076,7 +26081,7 @@
     <row r="196" spans="1:11">
       <c r="A196" s="139"/>
       <c r="B196" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
@@ -26091,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H196" s="60" t="s">
         <v>127</v>
@@ -26102,7 +26107,7 @@
     <row r="197" spans="1:11">
       <c r="A197" s="139"/>
       <c r="B197" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
@@ -26111,13 +26116,13 @@
         <v>0.26695141484250001</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F197" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H197" s="60" t="s">
         <v>127</v>
@@ -26128,7 +26133,7 @@
     <row r="198" spans="1:11">
       <c r="A198" s="139"/>
       <c r="B198" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C198" s="2">
         <v>4</v>
@@ -26154,7 +26159,7 @@
     <row r="199" spans="1:11">
       <c r="A199" s="139"/>
       <c r="B199" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C199" s="2">
         <v>4</v>
@@ -26163,13 +26168,13 @@
         <v>0.213561131874</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F199" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H199" s="60" t="s">
         <v>127</v>
@@ -26180,10 +26185,10 @@
     <row r="200" spans="1:11">
       <c r="A200" s="139"/>
       <c r="B200" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D200" s="60" t="s">
         <v>127</v>
@@ -26195,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H200" s="60" t="s">
         <v>127</v>
@@ -26206,10 +26211,10 @@
     <row r="201" spans="1:11">
       <c r="A201" s="139"/>
       <c r="B201" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D201" s="60" t="s">
         <v>127</v>
@@ -26232,22 +26237,22 @@
     <row r="202" spans="1:11">
       <c r="A202" s="139"/>
       <c r="B202" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D202" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F202" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H202" s="60" t="s">
         <v>127</v>
@@ -26258,10 +26263,10 @@
     <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="139"/>
       <c r="B203" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D203" s="60" t="s">
         <v>127</v>
@@ -26273,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H203" s="60" t="s">
         <v>127</v>
@@ -26312,7 +26317,7 @@
     <row r="205" spans="1:11">
       <c r="A205" s="139"/>
       <c r="B205" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C205" s="2">
         <v>32</v>
@@ -26338,7 +26343,7 @@
     <row r="206" spans="1:11">
       <c r="A206" s="139"/>
       <c r="B206" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C206" s="2">
         <v>17</v>
@@ -26364,7 +26369,7 @@
     <row r="207" spans="1:11">
       <c r="A207" s="139"/>
       <c r="B207" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C207" s="2">
         <v>13</v>
@@ -26373,7 +26378,7 @@
         <v>9.1549295774647899</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F207" s="60" t="s">
         <v>127</v>
@@ -26390,7 +26395,7 @@
     <row r="208" spans="1:11">
       <c r="A208" s="139"/>
       <c r="B208" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C208" s="2">
         <v>13</v>
@@ -26416,7 +26421,7 @@
     <row r="209" spans="1:11">
       <c r="A209" s="139"/>
       <c r="B209" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C209" s="2">
         <v>13</v>
@@ -26425,7 +26430,7 @@
         <v>9.1549295774647899</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F209" s="60" t="s">
         <v>127</v>
@@ -26442,7 +26447,7 @@
     <row r="210" spans="1:11">
       <c r="A210" s="139"/>
       <c r="B210" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C210" s="2">
         <v>9</v>
@@ -26451,13 +26456,13 @@
         <v>6.3380281690140903</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F210" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H210" s="60" t="s">
         <v>127</v>
@@ -26468,7 +26473,7 @@
     <row r="211" spans="1:11">
       <c r="A211" s="139"/>
       <c r="B211" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C211" s="2">
         <v>8</v>
@@ -26477,7 +26482,7 @@
         <v>5.6338028169014098</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F211" s="60" t="s">
         <v>127</v>
@@ -26494,7 +26499,7 @@
     <row r="212" spans="1:11">
       <c r="A212" s="139"/>
       <c r="B212" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
@@ -26503,13 +26508,13 @@
         <v>4.9295774647887303</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F212" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H212" s="60" t="s">
         <v>127</v>
@@ -26520,7 +26525,7 @@
     <row r="213" spans="1:11">
       <c r="A213" s="139"/>
       <c r="B213" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C213" s="2">
         <v>7</v>
@@ -26535,7 +26540,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H213" s="60" t="s">
         <v>127</v>
@@ -26546,7 +26551,7 @@
     <row r="214" spans="1:11">
       <c r="A214" s="139"/>
       <c r="B214" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C214" s="2">
         <v>5</v>
@@ -26572,7 +26577,7 @@
     <row r="215" spans="1:11">
       <c r="A215" s="139"/>
       <c r="B215" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2">
         <v>5</v>
@@ -26581,13 +26586,13 @@
         <v>3.52112676056338</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F215" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H215" s="60" t="s">
         <v>127</v>
@@ -26598,7 +26603,7 @@
     <row r="216" spans="1:11">
       <c r="A216" s="139"/>
       <c r="B216" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C216" s="2">
         <v>4</v>
@@ -26607,13 +26612,13 @@
         <v>2.8169014084507</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F216" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H216" s="60" t="s">
         <v>127</v>
@@ -26624,10 +26629,10 @@
     <row r="217" spans="1:11">
       <c r="A217" s="139"/>
       <c r="B217" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D217" s="60" t="s">
         <v>127</v>
@@ -26650,10 +26655,10 @@
     <row r="218" spans="1:11">
       <c r="A218" s="139"/>
       <c r="B218" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D218" s="60" t="s">
         <v>127</v>
@@ -26665,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H218" s="60" t="s">
         <v>127</v>
@@ -26676,10 +26681,10 @@
     <row r="219" spans="1:11">
       <c r="A219" s="139"/>
       <c r="B219" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D219" s="60" t="s">
         <v>127</v>
@@ -26691,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H219" s="60" t="s">
         <v>127</v>
@@ -26702,7 +26707,7 @@
     <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="139"/>
       <c r="B220" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -26727,7 +26732,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="4" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B221" s="265" t="s">
         <v>261</v>
@@ -26756,7 +26761,7 @@
     <row r="222" spans="1:11">
       <c r="A222" s="139"/>
       <c r="B222" s="20" t="s">
-        <v>288</v>
+        <v>968</v>
       </c>
       <c r="C222" s="2">
         <v>137</v>
@@ -26782,7 +26787,7 @@
     <row r="223" spans="1:11">
       <c r="A223" s="139"/>
       <c r="B223" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C223" s="2">
         <v>20</v>
@@ -26808,7 +26813,7 @@
     <row r="224" spans="1:11">
       <c r="A224" s="139"/>
       <c r="B224" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C224" s="2">
         <v>17</v>
@@ -26823,7 +26828,7 @@
         <v>64.705882352941202</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H224" s="60" t="s">
         <v>127</v>
@@ -26834,7 +26839,7 @@
     <row r="225" spans="1:11">
       <c r="A225" s="139"/>
       <c r="B225" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C225" s="2">
         <v>16</v>
@@ -26849,7 +26854,7 @@
         <v>25</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H225" s="60" t="s">
         <v>127</v>
@@ -26860,7 +26865,7 @@
     <row r="226" spans="1:11">
       <c r="A226" s="139"/>
       <c r="B226" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C226" s="2">
         <v>15</v>
@@ -26869,7 +26874,7 @@
         <v>5.7471264367816097</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F226" s="60" t="s">
         <v>127</v>
@@ -26886,7 +26891,7 @@
     <row r="227" spans="1:11">
       <c r="A227" s="139"/>
       <c r="B227" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C227" s="2">
         <v>13</v>
@@ -26901,7 +26906,7 @@
         <v>69.230769230769198</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H227" s="60" t="s">
         <v>127</v>
@@ -26912,7 +26917,7 @@
     <row r="228" spans="1:11">
       <c r="A228" s="139"/>
       <c r="B228" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C228" s="2">
         <v>12</v>
@@ -26921,7 +26926,7 @@
         <v>4.5977011494252897</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F228" s="60" t="s">
         <v>127</v>
@@ -26938,7 +26943,7 @@
     <row r="229" spans="1:11">
       <c r="A229" s="139"/>
       <c r="B229" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C229" s="2">
         <v>12</v>
@@ -26947,7 +26952,7 @@
         <v>4.5977011494252897</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F229" s="60" t="s">
         <v>127</v>
@@ -26964,7 +26969,7 @@
     <row r="230" spans="1:11">
       <c r="A230" s="139"/>
       <c r="B230" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C230" s="2">
         <v>11</v>
@@ -26990,22 +26995,22 @@
     <row r="231" spans="1:11">
       <c r="A231" s="139"/>
       <c r="B231" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D231" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F231" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H231" s="60" t="s">
         <v>127</v>
@@ -27016,10 +27021,10 @@
     <row r="232" spans="1:11">
       <c r="A232" s="139"/>
       <c r="B232" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D232" s="60" t="s">
         <v>127</v>
@@ -27031,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H232" s="60" t="s">
         <v>127</v>
@@ -27042,7 +27047,7 @@
     <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="139"/>
       <c r="B233" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -27096,7 +27101,7 @@
     <row r="235" spans="1:11">
       <c r="A235" s="139"/>
       <c r="B235" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C235" s="2">
         <v>196</v>
@@ -27122,7 +27127,7 @@
     <row r="236" spans="1:11">
       <c r="A236" s="139"/>
       <c r="B236" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C236" s="2">
         <v>30</v>
@@ -27137,7 +27142,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H236" s="60" t="s">
         <v>127</v>
@@ -27148,7 +27153,7 @@
     <row r="237" spans="1:11">
       <c r="A237" s="139"/>
       <c r="B237" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C237" s="2">
         <v>25</v>
@@ -27174,7 +27179,7 @@
     <row r="238" spans="1:11">
       <c r="A238" s="139"/>
       <c r="B238" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C238" s="2">
         <v>14</v>
@@ -27189,7 +27194,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H238" s="60" t="s">
         <v>127</v>
@@ -27200,7 +27205,7 @@
     <row r="239" spans="1:11">
       <c r="A239" s="139"/>
       <c r="B239" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C239" s="2">
         <v>11</v>
@@ -27215,7 +27220,7 @@
         <v>81.818181818181799</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H239" s="60" t="s">
         <v>127</v>
@@ -27226,7 +27231,7 @@
     <row r="240" spans="1:11">
       <c r="A240" s="139"/>
       <c r="B240" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C240" s="2">
         <v>9</v>
@@ -27252,7 +27257,7 @@
     <row r="241" spans="1:11">
       <c r="A241" s="139"/>
       <c r="B241" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C241" s="2">
         <v>7</v>
@@ -27261,7 +27266,7 @@
         <v>2.32558139534884</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F241" s="60" t="s">
         <v>127</v>
@@ -27278,7 +27283,7 @@
     <row r="242" spans="1:11">
       <c r="A242" s="139"/>
       <c r="B242" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C242" s="2">
         <v>4</v>
@@ -27293,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H242" s="60" t="s">
         <v>127</v>
@@ -27304,16 +27309,16 @@
     <row r="243" spans="1:11">
       <c r="A243" s="139"/>
       <c r="B243" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D243" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F243" s="60" t="s">
         <v>127</v>
@@ -27330,10 +27335,10 @@
     <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="139"/>
       <c r="B244" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D244" s="60" t="s">
         <v>127</v>
@@ -27345,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H244" s="60" t="s">
         <v>127</v>
@@ -27384,7 +27389,7 @@
     <row r="246" spans="1:11">
       <c r="A246" s="139"/>
       <c r="B246" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C246" s="2">
         <v>103</v>
@@ -27410,7 +27415,7 @@
     <row r="247" spans="1:11">
       <c r="A247" s="139"/>
       <c r="B247" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C247" s="2">
         <v>54</v>
@@ -27436,7 +27441,7 @@
     <row r="248" spans="1:11">
       <c r="A248" s="139"/>
       <c r="B248" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C248" s="2">
         <v>36</v>
@@ -27462,7 +27467,7 @@
     <row r="249" spans="1:11">
       <c r="A249" s="139"/>
       <c r="B249" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -27488,7 +27493,7 @@
     <row r="250" spans="1:11">
       <c r="A250" s="139"/>
       <c r="B250" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C250" s="2">
         <v>18</v>
@@ -27503,7 +27508,7 @@
         <v>72.2222222222222</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H250" s="60" t="s">
         <v>127</v>
@@ -27514,7 +27519,7 @@
     <row r="251" spans="1:11">
       <c r="A251" s="139"/>
       <c r="B251" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C251" s="2">
         <v>15</v>
@@ -27540,7 +27545,7 @@
     <row r="252" spans="1:11">
       <c r="A252" s="139"/>
       <c r="B252" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C252" s="2">
         <v>13</v>
@@ -27555,7 +27560,7 @@
         <v>61.538461538461597</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H252" s="60" t="s">
         <v>127</v>
@@ -27566,7 +27571,7 @@
     <row r="253" spans="1:11">
       <c r="A253" s="139"/>
       <c r="B253" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2">
         <v>12</v>
@@ -27575,7 +27580,7 @@
         <v>3.7267080745341601</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F253" s="60" t="s">
         <v>127</v>
@@ -27592,7 +27597,7 @@
     <row r="254" spans="1:11">
       <c r="A254" s="139"/>
       <c r="B254" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C254" s="2">
         <v>12</v>
@@ -27618,7 +27623,7 @@
     <row r="255" spans="1:11">
       <c r="A255" s="139"/>
       <c r="B255" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C255" s="2">
         <v>11</v>
@@ -27633,7 +27638,7 @@
         <v>54.545454545454596</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H255" s="60" t="s">
         <v>127</v>
@@ -27644,7 +27649,7 @@
     <row r="256" spans="1:11">
       <c r="A256" s="139"/>
       <c r="B256" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C256" s="2">
         <v>10</v>
@@ -27670,7 +27675,7 @@
     <row r="257" spans="1:11">
       <c r="A257" s="139"/>
       <c r="B257" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C257" s="2">
         <v>5</v>
@@ -27679,13 +27684,13 @@
         <v>1.5527950310559</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F257" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H257" s="60" t="s">
         <v>127</v>
@@ -27696,7 +27701,7 @@
     <row r="258" spans="1:11">
       <c r="A258" s="139"/>
       <c r="B258" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C258" s="2">
         <v>5</v>
@@ -27711,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H258" s="60" t="s">
         <v>127</v>
@@ -27722,10 +27727,10 @@
     <row r="259" spans="1:11">
       <c r="A259" s="139"/>
       <c r="B259" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D259" s="60" t="s">
         <v>127</v>
@@ -27737,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H259" s="60" t="s">
         <v>127</v>
@@ -27748,10 +27753,10 @@
     <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="139"/>
       <c r="B260" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D260" s="60" t="s">
         <v>127</v>
@@ -27802,7 +27807,7 @@
     <row r="262" spans="1:11">
       <c r="A262" s="139"/>
       <c r="B262" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C262" s="2">
         <v>133</v>
@@ -27828,7 +27833,7 @@
     <row r="263" spans="1:11">
       <c r="A263" s="139"/>
       <c r="B263" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C263" s="2">
         <v>76</v>
@@ -27854,7 +27859,7 @@
     <row r="264" spans="1:11">
       <c r="A264" s="139"/>
       <c r="B264" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C264" s="2">
         <v>62</v>
@@ -27880,7 +27885,7 @@
     <row r="265" spans="1:11">
       <c r="A265" s="139"/>
       <c r="B265" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2">
         <v>38</v>
@@ -27906,7 +27911,7 @@
     <row r="266" spans="1:11">
       <c r="A266" s="139"/>
       <c r="B266" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C266" s="2">
         <v>29</v>
@@ -27932,7 +27937,7 @@
     <row r="267" spans="1:11">
       <c r="A267" s="139"/>
       <c r="B267" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C267" s="2">
         <v>26</v>
@@ -27958,7 +27963,7 @@
     <row r="268" spans="1:11">
       <c r="A268" s="139"/>
       <c r="B268" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C268" s="2">
         <v>24</v>
@@ -27984,7 +27989,7 @@
     <row r="269" spans="1:11">
       <c r="A269" s="139"/>
       <c r="B269" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C269" s="2">
         <v>22</v>
@@ -27999,7 +28004,7 @@
         <v>63.636363636363598</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H269" s="60" t="s">
         <v>127</v>
@@ -28010,7 +28015,7 @@
     <row r="270" spans="1:11">
       <c r="A270" s="139"/>
       <c r="B270" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C270" s="2">
         <v>21</v>
@@ -28036,7 +28041,7 @@
     <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="139"/>
       <c r="B271" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C271" s="2">
         <v>8</v>
@@ -28051,7 +28056,7 @@
         <v>50</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H271" s="60" t="s">
         <v>127</v>
@@ -28090,7 +28095,7 @@
     <row r="273" spans="1:11">
       <c r="A273" s="139"/>
       <c r="B273" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C273" s="2">
         <v>111</v>
@@ -28116,7 +28121,7 @@
     <row r="274" spans="1:11">
       <c r="A274" s="139"/>
       <c r="B274" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C274" s="2">
         <v>49</v>
@@ -28142,7 +28147,7 @@
     <row r="275" spans="1:11">
       <c r="A275" s="139"/>
       <c r="B275" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C275" s="2">
         <v>42</v>
@@ -28168,7 +28173,7 @@
     <row r="276" spans="1:11">
       <c r="A276" s="139"/>
       <c r="B276" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C276" s="2">
         <v>38</v>
@@ -28194,7 +28199,7 @@
     <row r="277" spans="1:11">
       <c r="A277" s="139"/>
       <c r="B277" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C277" s="2">
         <v>30</v>
@@ -28220,7 +28225,7 @@
     <row r="278" spans="1:11">
       <c r="A278" s="139"/>
       <c r="B278" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C278" s="2">
         <v>23</v>
@@ -28229,7 +28234,7 @@
         <v>7.3482428115016001</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F278" s="60" t="s">
         <v>127</v>
@@ -28246,7 +28251,7 @@
     <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="139"/>
       <c r="B279" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C279" s="2">
         <v>20</v>
@@ -28255,7 +28260,7 @@
         <v>6.38977635782748</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F279" s="60" t="s">
         <v>127</v>
@@ -28300,7 +28305,7 @@
     <row r="281" spans="1:11">
       <c r="A281" s="139"/>
       <c r="B281" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C281" s="2">
         <v>55</v>
@@ -28326,7 +28331,7 @@
     <row r="282" spans="1:11">
       <c r="A282" s="139"/>
       <c r="B282" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C282" s="2">
         <v>18</v>
@@ -28341,7 +28346,7 @@
         <v>61.1111111111111</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H282" s="60" t="s">
         <v>127</v>
@@ -28352,7 +28357,7 @@
     <row r="283" spans="1:11">
       <c r="A283" s="139"/>
       <c r="B283" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C283" s="2">
         <v>11</v>
@@ -28367,7 +28372,7 @@
         <v>72.727272727272805</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H283" s="60" t="s">
         <v>127</v>
@@ -28378,7 +28383,7 @@
     <row r="284" spans="1:11">
       <c r="A284" s="139"/>
       <c r="B284" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C284" s="2">
         <v>8</v>
@@ -28404,7 +28409,7 @@
     <row r="285" spans="1:11">
       <c r="A285" s="139"/>
       <c r="B285" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C285" s="2">
         <v>7</v>
@@ -28413,13 +28418,13 @@
         <v>6.6037735849056602</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F285" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H285" s="60" t="s">
         <v>127</v>
@@ -28430,10 +28435,10 @@
     <row r="286" spans="1:11">
       <c r="A286" s="139"/>
       <c r="B286" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D286" s="60" t="s">
         <v>127</v>
@@ -28445,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H286" s="60" t="s">
         <v>127</v>
@@ -28456,10 +28461,10 @@
     <row r="287" spans="1:11">
       <c r="A287" s="139"/>
       <c r="B287" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D287" s="60" t="s">
         <v>127</v>
@@ -28471,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H287" s="60" t="s">
         <v>127</v>
@@ -28482,16 +28487,16 @@
     <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="139"/>
       <c r="B288" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D288" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F288" s="60" t="s">
         <v>127</v>
@@ -28536,7 +28541,7 @@
     <row r="290" spans="1:11">
       <c r="A290" s="139"/>
       <c r="B290" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C290" s="2">
         <v>46</v>
@@ -28562,7 +28567,7 @@
     <row r="291" spans="1:11">
       <c r="A291" s="139"/>
       <c r="B291" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C291" s="2">
         <v>34</v>
@@ -28577,7 +28582,7 @@
         <v>61.764705882352999</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H291" s="60" t="s">
         <v>127</v>
@@ -28588,7 +28593,7 @@
     <row r="292" spans="1:11">
       <c r="A292" s="139"/>
       <c r="B292" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C292" s="2">
         <v>10</v>
@@ -28603,7 +28608,7 @@
         <v>80</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H292" s="60" t="s">
         <v>127</v>
@@ -28614,16 +28619,16 @@
     <row r="293" spans="1:11">
       <c r="A293" s="139"/>
       <c r="B293" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D293" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F293" s="60" t="s">
         <v>127</v>
@@ -28640,16 +28645,16 @@
     <row r="294" spans="1:11">
       <c r="A294" s="139"/>
       <c r="B294" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D294" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F294" s="60" t="s">
         <v>127</v>
@@ -28666,10 +28671,10 @@
     <row r="295" spans="1:11">
       <c r="A295" s="139"/>
       <c r="B295" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D295" s="60" t="s">
         <v>127</v>
@@ -28681,7 +28686,7 @@
         <v>0</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H295" s="60" t="s">
         <v>127</v>
@@ -28692,10 +28697,10 @@
     <row r="296" spans="1:11">
       <c r="A296" s="139"/>
       <c r="B296" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D296" s="60" t="s">
         <v>127</v>
@@ -28718,22 +28723,22 @@
     <row r="297" spans="1:11">
       <c r="A297" s="139"/>
       <c r="B297" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D297" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F297" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H297" s="60" t="s">
         <v>127</v>
@@ -28744,10 +28749,10 @@
     <row r="298" spans="1:11">
       <c r="A298" s="139"/>
       <c r="B298" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D298" s="60" t="s">
         <v>127</v>
@@ -28759,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H298" s="60" t="s">
         <v>127</v>
@@ -28770,16 +28775,16 @@
     <row r="299" spans="1:11">
       <c r="A299" s="139"/>
       <c r="B299" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D299" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F299" s="60" t="s">
         <v>127</v>
@@ -28796,7 +28801,7 @@
     <row r="300" spans="1:11">
       <c r="A300" s="139"/>
       <c r="B300" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -28822,7 +28827,7 @@
     <row r="301" spans="1:11">
       <c r="A301" s="139"/>
       <c r="B301" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -28848,7 +28853,7 @@
     <row r="302" spans="1:11">
       <c r="A302" s="139"/>
       <c r="B302" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
@@ -28874,7 +28879,7 @@
     <row r="303" spans="1:11">
       <c r="A303" s="139"/>
       <c r="B303" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C303" s="2">
         <v>0</v>
@@ -28900,7 +28905,7 @@
     <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="139"/>
       <c r="B304" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -28954,7 +28959,7 @@
     <row r="306" spans="1:11">
       <c r="A306" s="139"/>
       <c r="B306" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C306" s="2">
         <v>45</v>
@@ -28980,7 +28985,7 @@
     <row r="307" spans="1:11">
       <c r="A307" s="139"/>
       <c r="B307" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C307" s="2">
         <v>35</v>
@@ -29006,7 +29011,7 @@
     <row r="308" spans="1:11">
       <c r="A308" s="139"/>
       <c r="B308" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C308" s="2">
         <v>32</v>
@@ -29032,7 +29037,7 @@
     <row r="309" spans="1:11">
       <c r="A309" s="139"/>
       <c r="B309" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C309" s="2">
         <v>25</v>
@@ -29058,7 +29063,7 @@
     <row r="310" spans="1:11">
       <c r="A310" s="139"/>
       <c r="B310" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C310" s="2">
         <v>15</v>
@@ -29084,7 +29089,7 @@
     <row r="311" spans="1:11">
       <c r="A311" s="139"/>
       <c r="B311" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C311" s="2">
         <v>13</v>
@@ -29099,7 +29104,7 @@
         <v>61.538461538461597</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H311" s="60" t="s">
         <v>127</v>
@@ -29110,7 +29115,7 @@
     <row r="312" spans="1:11">
       <c r="A312" s="139"/>
       <c r="B312" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C312" s="2">
         <v>10</v>
@@ -29136,7 +29141,7 @@
     <row r="313" spans="1:11">
       <c r="A313" s="139"/>
       <c r="B313" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C313" s="2">
         <v>5</v>
@@ -29145,13 +29150,13 @@
         <v>2.52525252525253</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F313" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H313" s="60" t="s">
         <v>127</v>
@@ -29162,7 +29167,7 @@
     <row r="314" spans="1:11">
       <c r="A314" s="139"/>
       <c r="B314" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C314" s="2">
         <v>5</v>
@@ -29177,7 +29182,7 @@
         <v>0</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H314" s="60" t="s">
         <v>127</v>
@@ -29188,7 +29193,7 @@
     <row r="315" spans="1:11">
       <c r="A315" s="139"/>
       <c r="B315" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C315" s="2">
         <v>4</v>
@@ -29214,10 +29219,10 @@
     <row r="316" spans="1:11">
       <c r="A316" s="139"/>
       <c r="B316" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D316" s="60" t="s">
         <v>127</v>
@@ -29240,10 +29245,10 @@
     <row r="317" spans="1:11">
       <c r="A317" s="139"/>
       <c r="B317" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D317" s="60" t="s">
         <v>127</v>
@@ -29255,7 +29260,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H317" s="60" t="s">
         <v>127</v>
@@ -29266,10 +29271,10 @@
     <row r="318" spans="1:11">
       <c r="A318" s="139"/>
       <c r="B318" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D318" s="60" t="s">
         <v>127</v>
@@ -29281,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H318" s="60" t="s">
         <v>127</v>
@@ -29292,16 +29297,16 @@
     <row r="319" spans="1:11" ht="14.25" thickBot="1">
       <c r="A319" s="140"/>
       <c r="B319" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D319" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F319" s="60" t="s">
         <v>127</v>
@@ -29338,7 +29343,7 @@
     </row>
     <row r="322" spans="1:8" s="88" customFormat="1">
       <c r="A322" s="127" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B322" s="146"/>
       <c r="D322" s="257"/>
@@ -29441,7 +29446,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="220" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="159">
         <v>11475</v>
@@ -29455,7 +29460,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="221" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="55">
         <v>8</v>
@@ -29470,7 +29475,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="222" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="48">
         <v>5</v>
@@ -29485,7 +29490,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="222" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="48">
         <v>7</v>
@@ -29500,7 +29505,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="222" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" s="48">
         <v>7</v>
@@ -29515,7 +29520,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" s="48">
         <v>9</v>
@@ -29530,7 +29535,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="222" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14" s="48">
         <v>13</v>
@@ -29545,7 +29550,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="222" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15" s="48">
         <v>11</v>
@@ -29560,7 +29565,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="222" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16" s="48">
         <v>22</v>
@@ -29575,7 +29580,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B17" s="48">
         <v>22</v>
@@ -29590,7 +29595,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" s="48">
         <v>29</v>
@@ -29605,7 +29610,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="222" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="48">
         <v>32</v>
@@ -29620,7 +29625,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="222" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" s="48">
         <v>33</v>
@@ -29635,7 +29640,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="222" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B21" s="48">
         <v>38</v>
@@ -29650,7 +29655,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="222" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B22" s="48">
         <v>43</v>
@@ -29665,7 +29670,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B23" s="48">
         <v>50</v>
@@ -29680,7 +29685,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="222" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" s="48">
         <v>55</v>
@@ -29695,7 +29700,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="222" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B25" s="48">
         <v>75</v>
@@ -29710,7 +29715,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="222" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B26" s="48">
         <v>85</v>
@@ -29725,7 +29730,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="222" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" s="48">
         <v>72</v>
@@ -29740,7 +29745,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="222" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B28" s="48">
         <v>91</v>
@@ -29755,7 +29760,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="222" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="48">
         <v>98</v>
@@ -29770,7 +29775,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="222" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30" s="48">
         <v>97</v>
@@ -29785,7 +29790,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="222" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B31" s="48">
         <v>122</v>
@@ -29800,7 +29805,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="222" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B32" s="48">
         <v>94</v>
@@ -29815,7 +29820,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="222" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B33" s="48">
         <v>107</v>
@@ -29830,7 +29835,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="222" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B34" s="48">
         <v>106</v>
@@ -29845,7 +29850,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="222" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B35" s="48">
         <v>113</v>
@@ -29860,7 +29865,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="222" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" s="48">
         <v>97</v>
@@ -29875,7 +29880,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="222" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B37" s="48">
         <v>103</v>
@@ -29890,7 +29895,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="222" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B38" s="48">
         <v>121</v>
@@ -29905,7 +29910,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="222" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B39" s="48">
         <v>122</v>
@@ -29920,7 +29925,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B40" s="48">
         <v>95</v>
@@ -29935,7 +29940,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B41" s="48">
         <v>95</v>
@@ -29950,7 +29955,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="222" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B42" s="48">
         <v>95</v>
@@ -29965,7 +29970,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="222" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B43" s="48">
         <v>98</v>
@@ -29980,7 +29985,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="222" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B44" s="48">
         <v>72</v>
@@ -29995,7 +30000,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="222" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B45" s="48">
         <v>83</v>
@@ -30010,7 +30015,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="222" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B46" s="48">
         <v>89</v>
@@ -30025,7 +30030,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="222" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B47" s="48">
         <v>97</v>
@@ -30040,7 +30045,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="222" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B48" s="48">
         <v>76</v>
@@ -30055,7 +30060,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="222" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B49" s="48">
         <v>80</v>
@@ -30070,7 +30075,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="222" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B50" s="48">
         <v>76</v>
@@ -30085,7 +30090,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="222" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B51" s="48">
         <v>91</v>
@@ -30100,7 +30105,7 @@
     </row>
     <row r="52" spans="1:22" s="81" customFormat="1">
       <c r="A52" s="222" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B52" s="48">
         <v>79</v>
@@ -30115,7 +30120,7 @@
     </row>
     <row r="53" spans="1:22" s="81" customFormat="1">
       <c r="A53" s="222" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" s="48">
         <v>76</v>
@@ -30130,7 +30135,7 @@
     </row>
     <row r="54" spans="1:22" s="81" customFormat="1">
       <c r="A54" s="222" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B54" s="48">
         <v>78</v>
@@ -30145,7 +30150,7 @@
     </row>
     <row r="55" spans="1:22" s="81" customFormat="1">
       <c r="A55" s="222" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B55" s="48">
         <v>82</v>
@@ -30160,7 +30165,7 @@
     </row>
     <row r="56" spans="1:22" s="81" customFormat="1">
       <c r="A56" s="222" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B56" s="48">
         <v>73</v>
@@ -30175,7 +30180,7 @@
     </row>
     <row r="57" spans="1:22" s="81" customFormat="1">
       <c r="A57" s="222" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B57" s="48">
         <v>85</v>
@@ -30190,7 +30195,7 @@
     </row>
     <row r="58" spans="1:22" s="81" customFormat="1">
       <c r="A58" s="222" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B58" s="48">
         <v>72</v>
@@ -30205,7 +30210,7 @@
     </row>
     <row r="59" spans="1:22" s="81" customFormat="1">
       <c r="A59" s="222" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B59" s="48">
         <v>69</v>
@@ -30220,7 +30225,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="222" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B60" s="48">
         <v>76</v>
@@ -30235,7 +30240,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="222" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B61" s="48">
         <v>57</v>
@@ -30250,7 +30255,7 @@
     </row>
     <row r="62" spans="1:22" s="81" customFormat="1">
       <c r="A62" s="222" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B62" s="48">
         <v>65</v>
@@ -30265,7 +30270,7 @@
     </row>
     <row r="63" spans="1:22" s="81" customFormat="1">
       <c r="A63" s="222" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B63" s="48">
         <v>75</v>
@@ -30280,7 +30285,7 @@
     </row>
     <row r="64" spans="1:22" s="81" customFormat="1">
       <c r="A64" s="222" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B64" s="48">
         <v>59</v>
@@ -30295,7 +30300,7 @@
     </row>
     <row r="65" spans="1:22" s="81" customFormat="1">
       <c r="A65" s="222" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B65" s="48">
         <v>63</v>
@@ -30310,7 +30315,7 @@
     </row>
     <row r="66" spans="1:22" s="81" customFormat="1">
       <c r="A66" s="222" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B66" s="48">
         <v>49</v>
@@ -30325,7 +30330,7 @@
     </row>
     <row r="67" spans="1:22" s="81" customFormat="1">
       <c r="A67" s="222" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B67" s="48">
         <v>47</v>
@@ -30340,7 +30345,7 @@
     </row>
     <row r="68" spans="1:22" s="81" customFormat="1">
       <c r="A68" s="222" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B68" s="48">
         <v>62</v>
@@ -30355,7 +30360,7 @@
     </row>
     <row r="69" spans="1:22" s="81" customFormat="1">
       <c r="A69" s="222" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B69" s="48">
         <v>43</v>
@@ -30370,7 +30375,7 @@
     </row>
     <row r="70" spans="1:22" s="81" customFormat="1">
       <c r="A70" s="222" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B70" s="48">
         <v>59</v>
@@ -30385,7 +30390,7 @@
     </row>
     <row r="71" spans="1:22" s="81" customFormat="1">
       <c r="A71" s="222" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B71" s="48">
         <v>57</v>
@@ -30400,7 +30405,7 @@
     </row>
     <row r="72" spans="1:22" s="81" customFormat="1">
       <c r="A72" s="222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B72" s="48">
         <v>42</v>
@@ -30415,7 +30420,7 @@
     </row>
     <row r="73" spans="1:22" s="81" customFormat="1">
       <c r="A73" s="222" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B73" s="48">
         <v>50</v>
@@ -30430,7 +30435,7 @@
     </row>
     <row r="74" spans="1:22" s="81" customFormat="1">
       <c r="A74" s="222" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B74" s="48">
         <v>47</v>
@@ -30445,7 +30450,7 @@
     </row>
     <row r="75" spans="1:22" s="81" customFormat="1">
       <c r="A75" s="222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B75" s="48">
         <v>55</v>
@@ -30460,7 +30465,7 @@
     </row>
     <row r="76" spans="1:22" s="81" customFormat="1">
       <c r="A76" s="222" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B76" s="48">
         <v>47</v>
@@ -30475,7 +30480,7 @@
     </row>
     <row r="77" spans="1:22" s="81" customFormat="1">
       <c r="A77" s="222" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B77" s="48">
         <v>44</v>
@@ -30490,7 +30495,7 @@
     </row>
     <row r="78" spans="1:22" s="81" customFormat="1">
       <c r="A78" s="222" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B78" s="48">
         <v>40</v>
@@ -30505,7 +30510,7 @@
     </row>
     <row r="79" spans="1:22" s="81" customFormat="1">
       <c r="A79" s="222" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B79" s="48">
         <v>28</v>
@@ -30520,7 +30525,7 @@
     </row>
     <row r="80" spans="1:22" s="81" customFormat="1">
       <c r="A80" s="222" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B80" s="48">
         <v>39</v>
@@ -30535,7 +30540,7 @@
     </row>
     <row r="81" spans="1:22" s="81" customFormat="1">
       <c r="A81" s="222" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B81" s="48">
         <v>37</v>
@@ -30550,7 +30555,7 @@
     </row>
     <row r="82" spans="1:22" s="81" customFormat="1">
       <c r="A82" s="222" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B82" s="48">
         <v>39</v>
@@ -30565,7 +30570,7 @@
     </row>
     <row r="83" spans="1:22" s="81" customFormat="1">
       <c r="A83" s="222" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B83" s="48">
         <v>36</v>
@@ -30580,7 +30585,7 @@
     </row>
     <row r="84" spans="1:22" s="81" customFormat="1">
       <c r="A84" s="222" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B84" s="48">
         <v>39</v>
@@ -30595,7 +30600,7 @@
     </row>
     <row r="85" spans="1:22" s="81" customFormat="1">
       <c r="A85" s="222" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B85" s="48">
         <v>40</v>
@@ -30610,7 +30615,7 @@
     </row>
     <row r="86" spans="1:22" s="81" customFormat="1">
       <c r="A86" s="222" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B86" s="48">
         <v>41</v>
@@ -30625,7 +30630,7 @@
     </row>
     <row r="87" spans="1:22" s="81" customFormat="1">
       <c r="A87" s="222" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B87" s="48">
         <v>28</v>
@@ -30640,7 +30645,7 @@
     </row>
     <row r="88" spans="1:22" s="81" customFormat="1">
       <c r="A88" s="222" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B88" s="48">
         <v>42</v>
@@ -30655,7 +30660,7 @@
     </row>
     <row r="89" spans="1:22" s="81" customFormat="1">
       <c r="A89" s="222" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B89" s="48">
         <v>36</v>
@@ -30670,7 +30675,7 @@
     </row>
     <row r="90" spans="1:22" s="81" customFormat="1">
       <c r="A90" s="222" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B90" s="48">
         <v>34</v>
@@ -30685,7 +30690,7 @@
     </row>
     <row r="91" spans="1:22" s="81" customFormat="1">
       <c r="A91" s="222" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B91" s="48">
         <v>33</v>
@@ -30700,7 +30705,7 @@
     </row>
     <row r="92" spans="1:22" s="81" customFormat="1">
       <c r="A92" s="222" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B92" s="48">
         <v>37</v>
@@ -30715,7 +30720,7 @@
     </row>
     <row r="93" spans="1:22" s="81" customFormat="1">
       <c r="A93" s="222" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B93" s="48">
         <v>33</v>
@@ -30730,7 +30735,7 @@
     </row>
     <row r="94" spans="1:22" s="81" customFormat="1">
       <c r="A94" s="222" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B94" s="48">
         <v>37</v>
@@ -30745,7 +30750,7 @@
     </row>
     <row r="95" spans="1:22" s="81" customFormat="1">
       <c r="A95" s="222" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B95" s="48">
         <v>36</v>
@@ -30760,7 +30765,7 @@
     </row>
     <row r="96" spans="1:22" s="81" customFormat="1">
       <c r="A96" s="222" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B96" s="48">
         <v>26</v>
@@ -30775,7 +30780,7 @@
     </row>
     <row r="97" spans="1:22" s="81" customFormat="1">
       <c r="A97" s="222" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B97" s="48">
         <v>29</v>
@@ -30790,7 +30795,7 @@
     </row>
     <row r="98" spans="1:22" s="81" customFormat="1">
       <c r="A98" s="222" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B98" s="48">
         <v>31</v>
@@ -30805,7 +30810,7 @@
     </row>
     <row r="99" spans="1:22" s="81" customFormat="1">
       <c r="A99" s="222" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B99" s="48">
         <v>31</v>
@@ -30820,7 +30825,7 @@
     </row>
     <row r="100" spans="1:22" s="81" customFormat="1">
       <c r="A100" s="222" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B100" s="48">
         <v>27</v>
@@ -30835,7 +30840,7 @@
     </row>
     <row r="101" spans="1:22" s="81" customFormat="1">
       <c r="A101" s="222" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B101" s="48">
         <v>33</v>
@@ -30850,7 +30855,7 @@
     </row>
     <row r="102" spans="1:22" s="81" customFormat="1">
       <c r="A102" s="222" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B102" s="48">
         <v>26</v>
@@ -30865,7 +30870,7 @@
     </row>
     <row r="103" spans="1:22" s="81" customFormat="1">
       <c r="A103" s="222" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B103" s="48">
         <v>28</v>
@@ -30880,7 +30885,7 @@
     </row>
     <row r="104" spans="1:22" s="81" customFormat="1">
       <c r="A104" s="222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B104" s="48">
         <v>26</v>
@@ -30895,7 +30900,7 @@
     </row>
     <row r="105" spans="1:22" s="81" customFormat="1">
       <c r="A105" s="222" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B105" s="48">
         <v>18</v>
@@ -30910,7 +30915,7 @@
     </row>
     <row r="106" spans="1:22" s="81" customFormat="1">
       <c r="A106" s="222" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B106" s="48">
         <v>21</v>
@@ -30925,7 +30930,7 @@
     </row>
     <row r="107" spans="1:22" s="81" customFormat="1">
       <c r="A107" s="222" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B107" s="48">
         <v>20</v>
@@ -30940,7 +30945,7 @@
     </row>
     <row r="108" spans="1:22" s="81" customFormat="1">
       <c r="A108" s="222" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B108" s="48">
         <v>21</v>
@@ -30955,7 +30960,7 @@
     </row>
     <row r="109" spans="1:22" s="81" customFormat="1">
       <c r="A109" s="222" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B109" s="48">
         <v>21</v>
@@ -30970,7 +30975,7 @@
     </row>
     <row r="110" spans="1:22" s="81" customFormat="1">
       <c r="A110" s="222" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B110" s="48">
         <v>12</v>
@@ -30985,7 +30990,7 @@
     </row>
     <row r="111" spans="1:22" s="81" customFormat="1">
       <c r="A111" s="222" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B111" s="48">
         <v>13</v>
@@ -31000,7 +31005,7 @@
     </row>
     <row r="112" spans="1:22" s="81" customFormat="1">
       <c r="A112" s="222" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B112" s="48">
         <v>25</v>
@@ -31015,7 +31020,7 @@
     </row>
     <row r="113" spans="1:22" s="81" customFormat="1">
       <c r="A113" s="222" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B113" s="48">
         <v>13</v>
@@ -31030,7 +31035,7 @@
     </row>
     <row r="114" spans="1:22" s="81" customFormat="1">
       <c r="A114" s="222" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B114" s="48">
         <v>14</v>
@@ -31045,7 +31050,7 @@
     </row>
     <row r="115" spans="1:22" s="81" customFormat="1">
       <c r="A115" s="222" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B115" s="48">
         <v>14</v>
@@ -31060,7 +31065,7 @@
     </row>
     <row r="116" spans="1:22" s="81" customFormat="1">
       <c r="A116" s="222" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B116" s="48">
         <v>15</v>
@@ -31075,7 +31080,7 @@
     </row>
     <row r="117" spans="1:22" s="81" customFormat="1">
       <c r="A117" s="222" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B117" s="48">
         <v>8</v>
@@ -31090,7 +31095,7 @@
     </row>
     <row r="118" spans="1:22" s="81" customFormat="1">
       <c r="A118" s="222" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B118" s="48">
         <v>15</v>
@@ -31105,7 +31110,7 @@
     </row>
     <row r="119" spans="1:22" s="81" customFormat="1">
       <c r="A119" s="222" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B119" s="48">
         <v>6</v>
@@ -31120,7 +31125,7 @@
     </row>
     <row r="120" spans="1:22" s="81" customFormat="1">
       <c r="A120" s="222" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B120" s="48">
         <v>13</v>
@@ -31135,7 +31140,7 @@
     </row>
     <row r="121" spans="1:22" s="81" customFormat="1">
       <c r="A121" s="222" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B121" s="48">
         <v>14</v>
@@ -31150,7 +31155,7 @@
     </row>
     <row r="122" spans="1:22" s="81" customFormat="1">
       <c r="A122" s="222" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B122" s="48">
         <v>11</v>
@@ -31165,7 +31170,7 @@
     </row>
     <row r="123" spans="1:22" s="81" customFormat="1">
       <c r="A123" s="222" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B123" s="48">
         <v>12</v>
@@ -31180,7 +31185,7 @@
     </row>
     <row r="124" spans="1:22" s="81" customFormat="1">
       <c r="A124" s="222" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B124" s="48">
         <v>8</v>
@@ -31195,7 +31200,7 @@
     </row>
     <row r="125" spans="1:22" s="81" customFormat="1">
       <c r="A125" s="222" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B125" s="48">
         <v>10</v>
@@ -31210,7 +31215,7 @@
     </row>
     <row r="126" spans="1:22" s="81" customFormat="1">
       <c r="A126" s="222" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B126" s="48">
         <v>9</v>
@@ -31225,7 +31230,7 @@
     </row>
     <row r="127" spans="1:22" s="81" customFormat="1">
       <c r="A127" s="222" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B127" s="48">
         <v>12</v>
@@ -31240,7 +31245,7 @@
     </row>
     <row r="128" spans="1:22" s="81" customFormat="1">
       <c r="A128" s="222" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B128" s="48">
         <v>10</v>
@@ -31255,7 +31260,7 @@
     </row>
     <row r="129" spans="1:22" s="81" customFormat="1">
       <c r="A129" s="222" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B129" s="48">
         <v>7</v>
@@ -31270,7 +31275,7 @@
     </row>
     <row r="130" spans="1:22" s="81" customFormat="1">
       <c r="A130" s="222" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B130" s="48">
         <v>4</v>
@@ -31285,7 +31290,7 @@
     </row>
     <row r="131" spans="1:22" s="81" customFormat="1">
       <c r="A131" s="222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B131" s="48">
         <v>7</v>
@@ -31300,7 +31305,7 @@
     </row>
     <row r="132" spans="1:22" s="81" customFormat="1">
       <c r="A132" s="222" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B132" s="48">
         <v>17</v>
@@ -31315,7 +31320,7 @@
     </row>
     <row r="133" spans="1:22" s="81" customFormat="1">
       <c r="A133" s="222" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B133" s="48">
         <v>7</v>
@@ -31330,7 +31335,7 @@
     </row>
     <row r="134" spans="1:22" s="81" customFormat="1">
       <c r="A134" s="222" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B134" s="48">
         <v>5</v>
@@ -31345,7 +31350,7 @@
     </row>
     <row r="135" spans="1:22" s="81" customFormat="1">
       <c r="A135" s="222" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B135" s="48">
         <v>6</v>
@@ -31360,7 +31365,7 @@
     </row>
     <row r="136" spans="1:22" s="81" customFormat="1">
       <c r="A136" s="222" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B136" s="48">
         <v>5</v>
@@ -31375,7 +31380,7 @@
     </row>
     <row r="137" spans="1:22" s="81" customFormat="1">
       <c r="A137" s="222" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B137" s="48">
         <v>7</v>
@@ -31390,10 +31395,10 @@
     </row>
     <row r="138" spans="1:22" s="81" customFormat="1">
       <c r="A138" s="222" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C138" s="21" t="str">
         <f t="shared" ref="C138:C201" si="2">IF(OR(B138=0,B138="X"),"",100*B138/B$8)</f>
@@ -31405,10 +31410,10 @@
     </row>
     <row r="139" spans="1:22" s="81" customFormat="1">
       <c r="A139" s="222" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C139" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31420,10 +31425,10 @@
     </row>
     <row r="140" spans="1:22" s="81" customFormat="1">
       <c r="A140" s="222" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C140" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31435,7 +31440,7 @@
     </row>
     <row r="141" spans="1:22" s="81" customFormat="1">
       <c r="A141" s="222" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B141" s="48">
         <v>8</v>
@@ -31450,7 +31455,7 @@
     </row>
     <row r="142" spans="1:22" s="81" customFormat="1">
       <c r="A142" s="222" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B142" s="48">
         <v>7</v>
@@ -31465,10 +31470,10 @@
     </row>
     <row r="143" spans="1:22" s="81" customFormat="1">
       <c r="A143" s="222" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C143" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31480,10 +31485,10 @@
     </row>
     <row r="144" spans="1:22" s="81" customFormat="1">
       <c r="A144" s="222" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31495,10 +31500,10 @@
     </row>
     <row r="145" spans="1:22" s="81" customFormat="1">
       <c r="A145" s="222" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C145" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31510,10 +31515,10 @@
     </row>
     <row r="146" spans="1:22" s="81" customFormat="1">
       <c r="A146" s="222" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C146" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31525,10 +31530,10 @@
     </row>
     <row r="147" spans="1:22" s="81" customFormat="1">
       <c r="A147" s="222" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C147" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31540,7 +31545,7 @@
     </row>
     <row r="148" spans="1:22" s="81" customFormat="1">
       <c r="A148" s="222" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B148" s="48">
         <v>5</v>
@@ -31555,10 +31560,10 @@
     </row>
     <row r="149" spans="1:22" s="81" customFormat="1">
       <c r="A149" s="222" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C149" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31570,10 +31575,10 @@
     </row>
     <row r="150" spans="1:22" s="81" customFormat="1">
       <c r="A150" s="222" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C150" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31585,7 +31590,7 @@
     </row>
     <row r="151" spans="1:22" s="81" customFormat="1">
       <c r="A151" s="222" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B151" s="48">
         <v>5</v>
@@ -31600,10 +31605,10 @@
     </row>
     <row r="152" spans="1:22" s="81" customFormat="1">
       <c r="A152" s="222" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C152" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31615,10 +31620,10 @@
     </row>
     <row r="153" spans="1:22" s="81" customFormat="1">
       <c r="A153" s="222" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C153" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31630,7 +31635,7 @@
     </row>
     <row r="154" spans="1:22" s="81" customFormat="1">
       <c r="A154" s="222" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B154" s="48">
         <v>7</v>
@@ -31645,10 +31650,10 @@
     </row>
     <row r="155" spans="1:22" s="81" customFormat="1">
       <c r="A155" s="222" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C155" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31660,10 +31665,10 @@
     </row>
     <row r="156" spans="1:22" s="81" customFormat="1">
       <c r="A156" s="222" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C156" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31675,7 +31680,7 @@
     </row>
     <row r="157" spans="1:22" s="81" customFormat="1">
       <c r="A157" s="222" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B157" s="48">
         <v>4</v>
@@ -31690,10 +31695,10 @@
     </row>
     <row r="158" spans="1:22" s="81" customFormat="1">
       <c r="A158" s="222" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C158" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31705,10 +31710,10 @@
     </row>
     <row r="159" spans="1:22" s="81" customFormat="1">
       <c r="A159" s="222" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C159" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31720,10 +31725,10 @@
     </row>
     <row r="160" spans="1:22" s="81" customFormat="1">
       <c r="A160" s="222" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C160" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31735,10 +31740,10 @@
     </row>
     <row r="161" spans="1:22" s="81" customFormat="1">
       <c r="A161" s="222" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C161" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31750,10 +31755,10 @@
     </row>
     <row r="162" spans="1:22" s="81" customFormat="1">
       <c r="A162" s="222" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C162" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31765,7 +31770,7 @@
     </row>
     <row r="163" spans="1:22" s="81" customFormat="1">
       <c r="A163" s="222" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B163" s="48">
         <v>4</v>
@@ -31780,10 +31785,10 @@
     </row>
     <row r="164" spans="1:22" s="81" customFormat="1">
       <c r="A164" s="222" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C164" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31795,10 +31800,10 @@
     </row>
     <row r="165" spans="1:22" s="81" customFormat="1">
       <c r="A165" s="222" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31810,10 +31815,10 @@
     </row>
     <row r="166" spans="1:22" s="81" customFormat="1">
       <c r="A166" s="222" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C166" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31825,10 +31830,10 @@
     </row>
     <row r="167" spans="1:22" s="81" customFormat="1">
       <c r="A167" s="222" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31840,10 +31845,10 @@
     </row>
     <row r="168" spans="1:22" s="81" customFormat="1">
       <c r="A168" s="222" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C168" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31855,7 +31860,7 @@
     </row>
     <row r="169" spans="1:22" s="81" customFormat="1">
       <c r="A169" s="222" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B169" s="48">
         <v>5</v>
@@ -31870,10 +31875,10 @@
     </row>
     <row r="170" spans="1:22" s="81" customFormat="1">
       <c r="A170" s="222" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C170" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31885,10 +31890,10 @@
     </row>
     <row r="171" spans="1:22" s="81" customFormat="1">
       <c r="A171" s="222" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C171" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31900,10 +31905,10 @@
     </row>
     <row r="172" spans="1:22" s="81" customFormat="1">
       <c r="A172" s="222" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C172" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31915,7 +31920,7 @@
     </row>
     <row r="173" spans="1:22" s="81" customFormat="1">
       <c r="A173" s="222" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B173" s="48">
         <v>0</v>
@@ -31930,7 +31935,7 @@
     </row>
     <row r="174" spans="1:22" s="81" customFormat="1">
       <c r="A174" s="222" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B174" s="48">
         <v>0</v>
@@ -31945,10 +31950,10 @@
     </row>
     <row r="175" spans="1:22" s="81" customFormat="1">
       <c r="A175" s="222" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31960,10 +31965,10 @@
     </row>
     <row r="176" spans="1:22" s="81" customFormat="1">
       <c r="A176" s="222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C176" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31975,10 +31980,10 @@
     </row>
     <row r="177" spans="1:22" s="81" customFormat="1">
       <c r="A177" s="222" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C177" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31990,10 +31995,10 @@
     </row>
     <row r="178" spans="1:22" s="81" customFormat="1">
       <c r="A178" s="222" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32005,10 +32010,10 @@
     </row>
     <row r="179" spans="1:22" s="81" customFormat="1">
       <c r="A179" s="222" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C179" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32020,7 +32025,7 @@
     </row>
     <row r="180" spans="1:22" s="81" customFormat="1">
       <c r="A180" s="222" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B180" s="48">
         <v>0</v>
@@ -32035,7 +32040,7 @@
     </row>
     <row r="181" spans="1:22" s="81" customFormat="1">
       <c r="A181" s="222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B181" s="48">
         <v>0</v>
@@ -32050,7 +32055,7 @@
     </row>
     <row r="182" spans="1:22" s="81" customFormat="1">
       <c r="A182" s="222" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B182" s="48">
         <v>4</v>
@@ -32065,10 +32070,10 @@
     </row>
     <row r="183" spans="1:22" s="81" customFormat="1">
       <c r="A183" s="222" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C183" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32080,10 +32085,10 @@
     </row>
     <row r="184" spans="1:22" s="81" customFormat="1">
       <c r="A184" s="222" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C184" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32095,10 +32100,10 @@
     </row>
     <row r="185" spans="1:22" s="81" customFormat="1">
       <c r="A185" s="222" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C185" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32110,10 +32115,10 @@
     </row>
     <row r="186" spans="1:22" s="81" customFormat="1">
       <c r="A186" s="222" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32125,7 +32130,7 @@
     </row>
     <row r="187" spans="1:22" s="81" customFormat="1">
       <c r="A187" s="222" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B187" s="48">
         <v>4</v>
@@ -32140,10 +32145,10 @@
     </row>
     <row r="188" spans="1:22" s="81" customFormat="1">
       <c r="A188" s="222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C188" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32155,10 +32160,10 @@
     </row>
     <row r="189" spans="1:22" s="81" customFormat="1">
       <c r="A189" s="222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C189" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32170,10 +32175,10 @@
     </row>
     <row r="190" spans="1:22" s="81" customFormat="1">
       <c r="A190" s="222" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C190" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32185,10 +32190,10 @@
     </row>
     <row r="191" spans="1:22" s="81" customFormat="1">
       <c r="A191" s="222" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C191" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32200,10 +32205,10 @@
     </row>
     <row r="192" spans="1:22" s="81" customFormat="1">
       <c r="A192" s="222" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C192" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32215,7 +32220,7 @@
     </row>
     <row r="193" spans="1:22" s="81" customFormat="1">
       <c r="A193" s="222" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B193" s="48">
         <v>0</v>
@@ -32230,10 +32235,10 @@
     </row>
     <row r="194" spans="1:22" s="81" customFormat="1">
       <c r="A194" s="222" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C194" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32245,10 +32250,10 @@
     </row>
     <row r="195" spans="1:22" s="81" customFormat="1">
       <c r="A195" s="222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C195" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32260,10 +32265,10 @@
     </row>
     <row r="196" spans="1:22" s="81" customFormat="1">
       <c r="A196" s="222" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C196" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32275,10 +32280,10 @@
     </row>
     <row r="197" spans="1:22" s="81" customFormat="1">
       <c r="A197" s="222" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C197" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32290,7 +32295,7 @@
     </row>
     <row r="198" spans="1:22" s="81" customFormat="1">
       <c r="A198" s="222" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B198" s="48">
         <v>0</v>
@@ -32305,7 +32310,7 @@
     </row>
     <row r="199" spans="1:22" s="81" customFormat="1">
       <c r="A199" s="222" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B199" s="48">
         <v>0</v>
@@ -32320,10 +32325,10 @@
     </row>
     <row r="200" spans="1:22" s="81" customFormat="1">
       <c r="A200" s="222" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C200" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32335,7 +32340,7 @@
     </row>
     <row r="201" spans="1:22" s="81" customFormat="1">
       <c r="A201" s="222" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B201" s="48">
         <v>5</v>
@@ -32350,10 +32355,10 @@
     </row>
     <row r="202" spans="1:22" s="81" customFormat="1">
       <c r="A202" s="222" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C202" s="21" t="str">
         <f t="shared" ref="C202:C265" si="3">IF(OR(B202=0,B202="X"),"",100*B202/B$8)</f>
@@ -32365,10 +32370,10 @@
     </row>
     <row r="203" spans="1:22" s="81" customFormat="1">
       <c r="A203" s="222" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C203" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32380,10 +32385,10 @@
     </row>
     <row r="204" spans="1:22" s="81" customFormat="1">
       <c r="A204" s="222" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C204" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32395,10 +32400,10 @@
     </row>
     <row r="205" spans="1:22" s="81" customFormat="1">
       <c r="A205" s="222" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C205" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32410,10 +32415,10 @@
     </row>
     <row r="206" spans="1:22" s="81" customFormat="1">
       <c r="A206" s="222" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C206" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32425,10 +32430,10 @@
     </row>
     <row r="207" spans="1:22" s="81" customFormat="1">
       <c r="A207" s="222" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C207" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32440,10 +32445,10 @@
     </row>
     <row r="208" spans="1:22" s="81" customFormat="1">
       <c r="A208" s="222" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C208" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32455,10 +32460,10 @@
     </row>
     <row r="209" spans="1:22" s="81" customFormat="1">
       <c r="A209" s="222" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C209" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32470,10 +32475,10 @@
     </row>
     <row r="210" spans="1:22" s="81" customFormat="1">
       <c r="A210" s="222" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C210" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32485,10 +32490,10 @@
     </row>
     <row r="211" spans="1:22" s="81" customFormat="1">
       <c r="A211" s="222" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C211" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32500,7 +32505,7 @@
     </row>
     <row r="212" spans="1:22" s="81" customFormat="1">
       <c r="A212" s="222" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B212" s="48">
         <v>5</v>
@@ -32515,10 +32520,10 @@
     </row>
     <row r="213" spans="1:22" s="81" customFormat="1">
       <c r="A213" s="222" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C213" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32530,10 +32535,10 @@
     </row>
     <row r="214" spans="1:22" s="81" customFormat="1">
       <c r="A214" s="222" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32545,7 +32550,7 @@
     </row>
     <row r="215" spans="1:22" s="81" customFormat="1">
       <c r="A215" s="222" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B215" s="48">
         <v>5</v>
@@ -32560,7 +32565,7 @@
     </row>
     <row r="216" spans="1:22" s="81" customFormat="1">
       <c r="A216" s="222" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B216" s="48">
         <v>4</v>
@@ -32575,10 +32580,10 @@
     </row>
     <row r="217" spans="1:22" s="81" customFormat="1">
       <c r="A217" s="222" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C217" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32590,7 +32595,7 @@
     </row>
     <row r="218" spans="1:22" s="81" customFormat="1">
       <c r="A218" s="222" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B218" s="48">
         <v>4</v>
@@ -32605,10 +32610,10 @@
     </row>
     <row r="219" spans="1:22" s="81" customFormat="1">
       <c r="A219" s="222" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C219" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32620,10 +32625,10 @@
     </row>
     <row r="220" spans="1:22" s="81" customFormat="1">
       <c r="A220" s="222" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C220" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32635,10 +32640,10 @@
     </row>
     <row r="221" spans="1:22" s="81" customFormat="1">
       <c r="A221" s="222" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B221" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C221" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32650,10 +32655,10 @@
     </row>
     <row r="222" spans="1:22" s="81" customFormat="1">
       <c r="A222" s="222" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C222" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32665,7 +32670,7 @@
     </row>
     <row r="223" spans="1:22" s="81" customFormat="1">
       <c r="A223" s="222" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B223" s="48">
         <v>4</v>
@@ -32680,10 +32685,10 @@
     </row>
     <row r="224" spans="1:22" s="81" customFormat="1">
       <c r="A224" s="222" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C224" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32695,7 +32700,7 @@
     </row>
     <row r="225" spans="1:22" s="81" customFormat="1">
       <c r="A225" s="222" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B225" s="48">
         <v>4</v>
@@ -32710,10 +32715,10 @@
     </row>
     <row r="226" spans="1:22" s="81" customFormat="1">
       <c r="A226" s="222" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C226" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32722,10 +32727,10 @@
     </row>
     <row r="227" spans="1:22" s="81" customFormat="1">
       <c r="A227" s="222" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C227" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32734,7 +32739,7 @@
     </row>
     <row r="228" spans="1:22" s="81" customFormat="1">
       <c r="A228" s="222" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B228" s="48">
         <v>9</v>
@@ -32747,10 +32752,10 @@
     </row>
     <row r="229" spans="1:22" s="81" customFormat="1">
       <c r="A229" s="222" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32760,7 +32765,7 @@
     </row>
     <row r="230" spans="1:22" s="81" customFormat="1">
       <c r="A230" s="222" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B230" s="48">
         <v>8</v>
@@ -32775,7 +32780,7 @@
     </row>
     <row r="231" spans="1:22" s="81" customFormat="1">
       <c r="A231" s="222" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B231" s="48">
         <v>6</v>
@@ -32790,7 +32795,7 @@
     </row>
     <row r="232" spans="1:22" s="81" customFormat="1">
       <c r="A232" s="222" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B232" s="48">
         <v>8</v>
@@ -32805,7 +32810,7 @@
     </row>
     <row r="233" spans="1:22" s="81" customFormat="1">
       <c r="A233" s="222" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B233" s="48">
         <v>9</v>
@@ -32820,7 +32825,7 @@
     </row>
     <row r="234" spans="1:22" s="81" customFormat="1">
       <c r="A234" s="222" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B234" s="48">
         <v>5</v>
@@ -32835,7 +32840,7 @@
     </row>
     <row r="235" spans="1:22" s="81" customFormat="1">
       <c r="A235" s="222" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B235" s="48">
         <v>9</v>
@@ -32850,7 +32855,7 @@
     </row>
     <row r="236" spans="1:22" s="81" customFormat="1">
       <c r="A236" s="222" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B236" s="48">
         <v>10</v>
@@ -32865,7 +32870,7 @@
     </row>
     <row r="237" spans="1:22" s="81" customFormat="1">
       <c r="A237" s="222" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B237" s="48">
         <v>10</v>
@@ -32880,7 +32885,7 @@
     </row>
     <row r="238" spans="1:22" s="81" customFormat="1">
       <c r="A238" s="222" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B238" s="48">
         <v>19</v>
@@ -32895,7 +32900,7 @@
     </row>
     <row r="239" spans="1:22" s="81" customFormat="1">
       <c r="A239" s="222" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B239" s="48">
         <v>14</v>
@@ -32910,7 +32915,7 @@
     </row>
     <row r="240" spans="1:22" s="81" customFormat="1">
       <c r="A240" s="222" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B240" s="48">
         <v>20</v>
@@ -32925,7 +32930,7 @@
     </row>
     <row r="241" spans="1:22" s="81" customFormat="1">
       <c r="A241" s="222" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B241" s="48">
         <v>17</v>
@@ -32940,7 +32945,7 @@
     </row>
     <row r="242" spans="1:22" s="81" customFormat="1">
       <c r="A242" s="222" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B242" s="48">
         <v>19</v>
@@ -32955,7 +32960,7 @@
     </row>
     <row r="243" spans="1:22" s="81" customFormat="1">
       <c r="A243" s="222" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B243" s="48">
         <v>20</v>
@@ -32970,7 +32975,7 @@
     </row>
     <row r="244" spans="1:22" s="81" customFormat="1">
       <c r="A244" s="222" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B244" s="48">
         <v>26</v>
@@ -32985,7 +32990,7 @@
     </row>
     <row r="245" spans="1:22" s="81" customFormat="1">
       <c r="A245" s="222" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B245" s="48">
         <v>19</v>
@@ -33000,7 +33005,7 @@
     </row>
     <row r="246" spans="1:22" s="81" customFormat="1">
       <c r="A246" s="222" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B246" s="48">
         <v>28</v>
@@ -33015,7 +33020,7 @@
     </row>
     <row r="247" spans="1:22" s="81" customFormat="1">
       <c r="A247" s="222" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B247" s="48">
         <v>24</v>
@@ -33030,7 +33035,7 @@
     </row>
     <row r="248" spans="1:22" s="81" customFormat="1">
       <c r="A248" s="222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B248" s="48">
         <v>21</v>
@@ -33045,7 +33050,7 @@
     </row>
     <row r="249" spans="1:22" s="81" customFormat="1">
       <c r="A249" s="222" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B249" s="48">
         <v>23</v>
@@ -33060,7 +33065,7 @@
     </row>
     <row r="250" spans="1:22" s="81" customFormat="1">
       <c r="A250" s="222" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B250" s="48">
         <v>26</v>
@@ -33075,7 +33080,7 @@
     </row>
     <row r="251" spans="1:22" s="81" customFormat="1">
       <c r="A251" s="222" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B251" s="48">
         <v>31</v>
@@ -33090,7 +33095,7 @@
     </row>
     <row r="252" spans="1:22" s="81" customFormat="1">
       <c r="A252" s="222" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B252" s="48">
         <v>35</v>
@@ -33105,7 +33110,7 @@
     </row>
     <row r="253" spans="1:22" s="81" customFormat="1">
       <c r="A253" s="222" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B253" s="48">
         <v>30</v>
@@ -33120,7 +33125,7 @@
     </row>
     <row r="254" spans="1:22" s="81" customFormat="1">
       <c r="A254" s="222" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B254" s="48">
         <v>38</v>
@@ -33135,7 +33140,7 @@
     </row>
     <row r="255" spans="1:22" s="81" customFormat="1">
       <c r="A255" s="222" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B255" s="48">
         <v>42</v>
@@ -33150,7 +33155,7 @@
     </row>
     <row r="256" spans="1:22" s="81" customFormat="1">
       <c r="A256" s="222" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B256" s="48">
         <v>37</v>
@@ -33165,7 +33170,7 @@
     </row>
     <row r="257" spans="1:22" s="81" customFormat="1">
       <c r="A257" s="222" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B257" s="48">
         <v>44</v>
@@ -33180,7 +33185,7 @@
     </row>
     <row r="258" spans="1:22" s="81" customFormat="1">
       <c r="A258" s="222" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B258" s="48">
         <v>45</v>
@@ -33195,7 +33200,7 @@
     </row>
     <row r="259" spans="1:22" s="81" customFormat="1">
       <c r="A259" s="222" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B259" s="48">
         <v>57</v>
@@ -33210,7 +33215,7 @@
     </row>
     <row r="260" spans="1:22" s="81" customFormat="1">
       <c r="A260" s="222" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B260" s="48">
         <v>49</v>
@@ -33225,7 +33230,7 @@
     </row>
     <row r="261" spans="1:22" s="81" customFormat="1">
       <c r="A261" s="222" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B261" s="48">
         <v>55</v>
@@ -33240,7 +33245,7 @@
     </row>
     <row r="262" spans="1:22" s="81" customFormat="1">
       <c r="A262" s="222" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B262" s="48">
         <v>55</v>
@@ -33255,7 +33260,7 @@
     </row>
     <row r="263" spans="1:22" s="81" customFormat="1">
       <c r="A263" s="222" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B263" s="48">
         <v>43</v>
@@ -33270,7 +33275,7 @@
     </row>
     <row r="264" spans="1:22" s="81" customFormat="1">
       <c r="A264" s="222" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B264" s="48">
         <v>52</v>
@@ -33285,7 +33290,7 @@
     </row>
     <row r="265" spans="1:22" s="81" customFormat="1">
       <c r="A265" s="222" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B265" s="48">
         <v>37</v>
@@ -33300,7 +33305,7 @@
     </row>
     <row r="266" spans="1:22" s="81" customFormat="1">
       <c r="A266" s="222" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B266" s="48">
         <v>38</v>
@@ -33315,7 +33320,7 @@
     </row>
     <row r="267" spans="1:22" s="81" customFormat="1">
       <c r="A267" s="222" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B267" s="48">
         <v>49</v>
@@ -33330,7 +33335,7 @@
     </row>
     <row r="268" spans="1:22" s="81" customFormat="1">
       <c r="A268" s="222" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B268" s="48">
         <v>59</v>
@@ -33345,7 +33350,7 @@
     </row>
     <row r="269" spans="1:22" s="81" customFormat="1">
       <c r="A269" s="222" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B269" s="48">
         <v>55</v>
@@ -33360,7 +33365,7 @@
     </row>
     <row r="270" spans="1:22" s="81" customFormat="1">
       <c r="A270" s="222" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B270" s="48">
         <v>56</v>
@@ -33375,7 +33380,7 @@
     </row>
     <row r="271" spans="1:22" s="81" customFormat="1">
       <c r="A271" s="222" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B271" s="48">
         <v>59</v>
@@ -33390,7 +33395,7 @@
     </row>
     <row r="272" spans="1:22" s="81" customFormat="1">
       <c r="A272" s="222" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B272" s="48">
         <v>37</v>
@@ -33405,7 +33410,7 @@
     </row>
     <row r="273" spans="1:22" s="81" customFormat="1">
       <c r="A273" s="222" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B273" s="48">
         <v>70</v>
@@ -33420,7 +33425,7 @@
     </row>
     <row r="274" spans="1:22" s="81" customFormat="1">
       <c r="A274" s="222" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B274" s="48">
         <v>41</v>
@@ -33435,7 +33440,7 @@
     </row>
     <row r="275" spans="1:22" s="81" customFormat="1">
       <c r="A275" s="222" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B275" s="48">
         <v>45</v>
@@ -33450,7 +33455,7 @@
     </row>
     <row r="276" spans="1:22" s="81" customFormat="1">
       <c r="A276" s="222" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B276" s="48">
         <v>57</v>
@@ -33465,7 +33470,7 @@
     </row>
     <row r="277" spans="1:22" s="81" customFormat="1">
       <c r="A277" s="222" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B277" s="48">
         <v>74</v>
@@ -33480,7 +33485,7 @@
     </row>
     <row r="278" spans="1:22" s="81" customFormat="1">
       <c r="A278" s="222" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B278" s="48">
         <v>59</v>
@@ -33495,7 +33500,7 @@
     </row>
     <row r="279" spans="1:22" s="81" customFormat="1">
       <c r="A279" s="222" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B279" s="48">
         <v>53</v>
@@ -33510,7 +33515,7 @@
     </row>
     <row r="280" spans="1:22" s="81" customFormat="1">
       <c r="A280" s="222" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B280" s="48">
         <v>56</v>
@@ -33525,7 +33530,7 @@
     </row>
     <row r="281" spans="1:22" s="81" customFormat="1">
       <c r="A281" s="222" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B281" s="48">
         <v>72</v>
@@ -33540,7 +33545,7 @@
     </row>
     <row r="282" spans="1:22" s="81" customFormat="1">
       <c r="A282" s="222" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B282" s="48">
         <v>67</v>
@@ -33555,7 +33560,7 @@
     </row>
     <row r="283" spans="1:22" s="81" customFormat="1">
       <c r="A283" s="222" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B283" s="48">
         <v>85</v>
@@ -33570,7 +33575,7 @@
     </row>
     <row r="284" spans="1:22" s="81" customFormat="1">
       <c r="A284" s="222" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B284" s="48">
         <v>95</v>
@@ -33585,7 +33590,7 @@
     </row>
     <row r="285" spans="1:22" s="81" customFormat="1">
       <c r="A285" s="222" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B285" s="48">
         <v>59</v>
@@ -33600,7 +33605,7 @@
     </row>
     <row r="286" spans="1:22" s="81" customFormat="1">
       <c r="A286" s="222" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B286" s="48">
         <v>58</v>
@@ -33615,7 +33620,7 @@
     </row>
     <row r="287" spans="1:22" s="81" customFormat="1">
       <c r="A287" s="222" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B287" s="48">
         <v>72</v>
@@ -33630,7 +33635,7 @@
     </row>
     <row r="288" spans="1:22" s="81" customFormat="1">
       <c r="A288" s="222" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B288" s="48">
         <v>60</v>
@@ -33645,7 +33650,7 @@
     </row>
     <row r="289" spans="1:22" s="81" customFormat="1">
       <c r="A289" s="222" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B289" s="48">
         <v>75</v>
@@ -33660,7 +33665,7 @@
     </row>
     <row r="290" spans="1:22" s="81" customFormat="1">
       <c r="A290" s="222" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B290" s="48">
         <v>72</v>
@@ -33675,7 +33680,7 @@
     </row>
     <row r="291" spans="1:22" s="81" customFormat="1">
       <c r="A291" s="222" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B291" s="48">
         <v>72</v>
@@ -33690,7 +33695,7 @@
     </row>
     <row r="292" spans="1:22" s="81" customFormat="1">
       <c r="A292" s="222" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B292" s="48">
         <v>80</v>
@@ -33705,7 +33710,7 @@
     </row>
     <row r="293" spans="1:22" s="81" customFormat="1">
       <c r="A293" s="222" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B293" s="48">
         <v>74</v>
@@ -33720,7 +33725,7 @@
     </row>
     <row r="294" spans="1:22" s="81" customFormat="1">
       <c r="A294" s="222" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B294" s="48">
         <v>76</v>
@@ -33735,7 +33740,7 @@
     </row>
     <row r="295" spans="1:22" s="81" customFormat="1">
       <c r="A295" s="222" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B295" s="48">
         <v>106</v>
@@ -33750,7 +33755,7 @@
     </row>
     <row r="296" spans="1:22" s="81" customFormat="1">
       <c r="A296" s="222" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B296" s="48">
         <v>57</v>
@@ -33765,7 +33770,7 @@
     </row>
     <row r="297" spans="1:22" s="81" customFormat="1">
       <c r="A297" s="222" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B297" s="48">
         <v>78</v>
@@ -33780,7 +33785,7 @@
     </row>
     <row r="298" spans="1:22" s="81" customFormat="1">
       <c r="A298" s="222" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B298" s="48">
         <v>82</v>
@@ -33795,7 +33800,7 @@
     </row>
     <row r="299" spans="1:22" s="81" customFormat="1">
       <c r="A299" s="222" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B299" s="48">
         <v>74</v>
@@ -33810,7 +33815,7 @@
     </row>
     <row r="300" spans="1:22" s="81" customFormat="1">
       <c r="A300" s="222" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B300" s="48">
         <v>80</v>
@@ -33825,7 +33830,7 @@
     </row>
     <row r="301" spans="1:22" s="81" customFormat="1">
       <c r="A301" s="222" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B301" s="48">
         <v>78</v>
@@ -33840,7 +33845,7 @@
     </row>
     <row r="302" spans="1:22" s="81" customFormat="1">
       <c r="A302" s="222" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B302" s="48">
         <v>72</v>
@@ -33855,7 +33860,7 @@
     </row>
     <row r="303" spans="1:22" s="81" customFormat="1">
       <c r="A303" s="222" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B303" s="48">
         <v>78</v>
@@ -33870,7 +33875,7 @@
     </row>
     <row r="304" spans="1:22" s="81" customFormat="1">
       <c r="A304" s="222" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B304" s="48">
         <v>66</v>
@@ -33885,7 +33890,7 @@
     </row>
     <row r="305" spans="1:22" s="81" customFormat="1">
       <c r="A305" s="222" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B305" s="48">
         <v>88</v>
@@ -33900,7 +33905,7 @@
     </row>
     <row r="306" spans="1:22" s="81" customFormat="1">
       <c r="A306" s="222" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B306" s="48">
         <v>82</v>
@@ -33915,7 +33920,7 @@
     </row>
     <row r="307" spans="1:22" s="81" customFormat="1">
       <c r="A307" s="222" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B307" s="48">
         <v>70</v>
@@ -33930,7 +33935,7 @@
     </row>
     <row r="308" spans="1:22" s="81" customFormat="1">
       <c r="A308" s="222" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B308" s="48">
         <v>75</v>
@@ -33945,7 +33950,7 @@
     </row>
     <row r="309" spans="1:22" s="81" customFormat="1">
       <c r="A309" s="222" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B309" s="48">
         <v>80</v>
@@ -33960,7 +33965,7 @@
     </row>
     <row r="310" spans="1:22" s="81" customFormat="1">
       <c r="A310" s="222" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B310" s="48">
         <v>78</v>
@@ -33975,7 +33980,7 @@
     </row>
     <row r="311" spans="1:22" s="81" customFormat="1">
       <c r="A311" s="222" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B311" s="48">
         <v>84</v>
@@ -33990,7 +33995,7 @@
     </row>
     <row r="312" spans="1:22" s="81" customFormat="1">
       <c r="A312" s="222" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B312" s="48">
         <v>84</v>
@@ -34005,7 +34010,7 @@
     </row>
     <row r="313" spans="1:22" s="81" customFormat="1">
       <c r="A313" s="222" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B313" s="48">
         <v>72</v>
@@ -34020,7 +34025,7 @@
     </row>
     <row r="314" spans="1:22" s="81" customFormat="1">
       <c r="A314" s="222" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B314" s="48">
         <v>67</v>
@@ -34035,7 +34040,7 @@
     </row>
     <row r="315" spans="1:22" s="81" customFormat="1">
       <c r="A315" s="222" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B315" s="48">
         <v>58</v>
@@ -34050,7 +34055,7 @@
     </row>
     <row r="316" spans="1:22" s="81" customFormat="1">
       <c r="A316" s="222" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B316" s="48">
         <v>66</v>
@@ -34065,7 +34070,7 @@
     </row>
     <row r="317" spans="1:22" s="81" customFormat="1">
       <c r="A317" s="222" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B317" s="48">
         <v>80</v>
@@ -34080,7 +34085,7 @@
     </row>
     <row r="318" spans="1:22" s="81" customFormat="1">
       <c r="A318" s="222" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B318" s="48">
         <v>66</v>
@@ -34095,7 +34100,7 @@
     </row>
     <row r="319" spans="1:22" s="81" customFormat="1">
       <c r="A319" s="222" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B319" s="48">
         <v>74</v>
@@ -34107,7 +34112,7 @@
     </row>
     <row r="320" spans="1:22" s="81" customFormat="1">
       <c r="A320" s="222" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B320" s="48">
         <v>46</v>
@@ -34119,7 +34124,7 @@
     </row>
     <row r="321" spans="1:22" s="81" customFormat="1">
       <c r="A321" s="222" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B321" s="48">
         <v>41</v>
@@ -34131,7 +34136,7 @@
     </row>
     <row r="322" spans="1:22" s="81" customFormat="1">
       <c r="A322" s="222" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B322" s="48">
         <v>38</v>
@@ -34143,7 +34148,7 @@
     </row>
     <row r="323" spans="1:22" s="81" customFormat="1">
       <c r="A323" s="222" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B323" s="48">
         <v>49</v>
@@ -34156,7 +34161,7 @@
     </row>
     <row r="324" spans="1:22" ht="13.5" customHeight="1">
       <c r="A324" s="222" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B324" s="48">
         <v>58</v>
@@ -34168,7 +34173,7 @@
     </row>
     <row r="325" spans="1:22">
       <c r="A325" s="222" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B325" s="48">
         <v>42</v>
@@ -34180,7 +34185,7 @@
     </row>
     <row r="326" spans="1:22">
       <c r="A326" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B326" s="48">
         <v>43</v>
@@ -34192,7 +34197,7 @@
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="222" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B327" s="48">
         <v>47</v>
@@ -34204,7 +34209,7 @@
     </row>
     <row r="328" spans="1:22">
       <c r="A328" s="222" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B328" s="48">
         <v>45</v>
@@ -34216,7 +34221,7 @@
     </row>
     <row r="329" spans="1:22">
       <c r="A329" s="222" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B329" s="48">
         <v>32</v>
@@ -34228,7 +34233,7 @@
     </row>
     <row r="330" spans="1:22">
       <c r="A330" s="222" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B330" s="48">
         <v>36</v>
@@ -34240,7 +34245,7 @@
     </row>
     <row r="331" spans="1:22">
       <c r="A331" s="222" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B331" s="48">
         <v>26</v>
@@ -34252,7 +34257,7 @@
     </row>
     <row r="332" spans="1:22">
       <c r="A332" s="222" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B332" s="48">
         <v>36</v>
@@ -34264,7 +34269,7 @@
     </row>
     <row r="333" spans="1:22">
       <c r="A333" s="222" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B333" s="48">
         <v>23</v>
@@ -34276,7 +34281,7 @@
     </row>
     <row r="334" spans="1:22">
       <c r="A334" s="222" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B334" s="48">
         <v>18</v>
@@ -34288,7 +34293,7 @@
     </row>
     <row r="335" spans="1:22">
       <c r="A335" s="222" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B335" s="48">
         <v>20</v>
@@ -34300,7 +34305,7 @@
     </row>
     <row r="336" spans="1:22">
       <c r="A336" s="222" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B336" s="48">
         <v>11</v>
@@ -34312,7 +34317,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="222" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B337" s="48">
         <v>27</v>
@@ -34324,7 +34329,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="222" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B338" s="48">
         <v>15</v>
@@ -34336,7 +34341,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="222" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B339" s="48">
         <v>10</v>
@@ -34348,7 +34353,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="222" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B340" s="48">
         <v>4</v>
@@ -34360,10 +34365,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="222" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B341" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C341" s="32" t="str">
         <f t="shared" ref="C341:C344" si="12">IF(OR(B341=0,B341="X"),"",100*B341/B$8)</f>
@@ -34372,10 +34377,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="222" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B342" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C342" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34384,10 +34389,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="222" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B343" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C343" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34396,10 +34401,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="222" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B344" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C344" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34408,7 +34413,7 @@
     </row>
     <row r="345" spans="1:3" ht="14.25" thickBot="1">
       <c r="A345" s="222" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B345" s="48">
         <v>23</v>
@@ -34543,7 +34548,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="217" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B9" s="177">
         <v>11475</v>
@@ -34566,7 +34571,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="218" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B10" s="215">
         <v>23</v>
@@ -34589,10 +34594,10 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="219" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B11" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="216"/>
       <c r="D11" s="216">
@@ -34610,10 +34615,10 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="219" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B12" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="216"/>
       <c r="D12" s="216">
@@ -34631,7 +34636,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="219" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B13" s="216">
         <v>44</v>
@@ -34654,7 +34659,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="219" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B14" s="216">
         <v>187</v>
@@ -34677,7 +34682,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B15" s="216">
         <v>471</v>
@@ -34700,7 +34705,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B16" s="216">
         <v>737</v>
@@ -34723,7 +34728,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="219" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B17" s="216">
         <v>728</v>
@@ -34746,7 +34751,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="219" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B18" s="216">
         <v>595</v>
@@ -34769,7 +34774,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="219" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B19" s="216">
         <v>555</v>
@@ -34792,7 +34797,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="219" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B20" s="216">
         <v>499</v>
@@ -34815,7 +34820,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="219" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B21" s="216">
         <v>382</v>
@@ -34838,7 +34843,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="219" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B22" s="216">
         <v>342</v>
@@ -34861,7 +34866,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="219" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B23" s="216">
         <v>258</v>
@@ -34884,7 +34889,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="219" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B24" s="216">
         <v>254</v>
@@ -34907,7 +34912,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="219" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B25" s="216">
         <v>229</v>
@@ -34930,7 +34935,7 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="219" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B26" s="216">
         <v>189</v>
@@ -34953,7 +34958,7 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="219" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B27" s="216">
         <v>133</v>
@@ -34976,7 +34981,7 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="219" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B28" s="216">
         <v>85</v>
@@ -34999,7 +35004,7 @@
     </row>
     <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="219" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B29" s="216">
         <v>77</v>
@@ -35022,7 +35027,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="219" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B30" s="216">
         <v>64</v>
@@ -35045,7 +35050,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="219" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B31" s="216">
         <v>29</v>
@@ -35068,7 +35073,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="219" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B32" s="216">
         <v>24</v>
@@ -35091,7 +35096,7 @@
     </row>
     <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="219" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B33" s="216">
         <v>24</v>
@@ -35115,7 +35120,7 @@
     </row>
     <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="219" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B34" s="216">
         <v>16</v>
@@ -35130,13 +35135,13 @@
         <v>43.75</v>
       </c>
       <c r="F34" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="216"/>
     </row>
     <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="219" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B35" s="216">
         <v>16</v>
@@ -35159,7 +35164,7 @@
     </row>
     <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="219" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B36" s="216">
         <v>13</v>
@@ -35168,7 +35173,7 @@
         <v>0.11</v>
       </c>
       <c r="D36" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E36" s="216"/>
       <c r="F36" s="216">
@@ -35180,7 +35185,7 @@
     </row>
     <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="219" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B37" s="216">
         <v>10</v>
@@ -35203,7 +35208,7 @@
     </row>
     <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="219" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B38" s="216">
         <v>13</v>
@@ -35226,7 +35231,7 @@
     </row>
     <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="219" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B39" s="216">
         <v>9</v>
@@ -35235,17 +35240,17 @@
         <v>0.08</v>
       </c>
       <c r="D39" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39" s="216"/>
       <c r="F39" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="216"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="219" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B40" s="216">
         <v>13</v>
@@ -35254,17 +35259,17 @@
         <v>0.11</v>
       </c>
       <c r="D40" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E40" s="216"/>
       <c r="F40" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="216"/>
     </row>
     <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="219" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B41" s="216">
         <v>12</v>
@@ -35279,13 +35284,13 @@
         <v>50</v>
       </c>
       <c r="F41" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41" s="216"/>
     </row>
     <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="219" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B42" s="216">
         <v>20</v>
@@ -35308,7 +35313,7 @@
     </row>
     <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="219" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B43" s="216">
         <v>16</v>
@@ -35331,7 +35336,7 @@
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="219" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B44" s="216">
         <v>33</v>
@@ -35354,7 +35359,7 @@
     </row>
     <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="219" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B45" s="216">
         <v>70</v>
@@ -35377,7 +35382,7 @@
     </row>
     <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="219" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B46" s="216">
         <v>135</v>
@@ -35400,7 +35405,7 @@
     </row>
     <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="219" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B47" s="216">
         <v>188</v>
@@ -35423,7 +35428,7 @@
     </row>
     <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="219" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B48" s="216">
         <v>293</v>
@@ -35446,7 +35451,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="219" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B49" s="216">
         <v>329</v>
@@ -35469,7 +35474,7 @@
     </row>
     <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="219" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B50" s="216">
         <v>385</v>
@@ -35492,7 +35497,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B51" s="216">
         <v>385</v>
@@ -35515,7 +35520,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="219" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B52" s="216">
         <v>508</v>
@@ -35538,7 +35543,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="219" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B53" s="216">
         <v>509</v>
@@ -35561,7 +35566,7 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="219" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B54" s="216">
         <v>555</v>
@@ -35584,7 +35589,7 @@
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="219" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B55" s="216">
         <v>531</v>
@@ -35607,7 +35612,7 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="219" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B56" s="216">
         <v>523</v>
@@ -35630,7 +35635,7 @@
     </row>
     <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="219" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B57" s="216">
         <v>411</v>
@@ -35653,7 +35658,7 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="219" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B58" s="216">
         <v>316</v>
@@ -35676,7 +35681,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="219" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B59" s="216">
         <v>170</v>
@@ -35699,7 +35704,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1">
       <c r="A60" s="219" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B60" s="216">
         <v>60</v>
@@ -35752,7 +35757,7 @@
   </sheetPr>
   <dimension ref="B4:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -36848,7 +36853,7 @@
     </row>
     <row r="75" spans="2:6" s="81" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
       <c r="B75" s="287" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C75" s="287"/>
       <c r="D75" s="150"/>
@@ -37136,7 +37141,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="305" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -47022,7 +47027,7 @@
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
       <c r="A2" s="307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="307"/>
       <c r="C2" s="307"/>
@@ -48082,7 +48087,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="261" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="245">
         <v>24</v>
@@ -48103,19 +48108,19 @@
         <v>9</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36" s="9">
         <v>88.89</v>
       </c>
       <c r="J36" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="245">
         <v>122</v>
@@ -48150,7 +48155,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="261" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="245">
         <v>12</v>
@@ -48171,19 +48176,19 @@
         <v>5</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" s="9">
         <v>80</v>
       </c>
       <c r="J38" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="261" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="245">
         <v>187</v>
@@ -48218,7 +48223,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" s="245">
         <v>78</v>
@@ -48253,7 +48258,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" s="245">
         <v>50</v>
@@ -48288,7 +48293,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="261" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="245">
         <v>168</v>
@@ -48323,7 +48328,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" s="245">
         <v>54</v>
@@ -48358,7 +48363,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="245">
         <v>89</v>
@@ -48393,7 +48398,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="261" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="245">
         <v>53</v>
@@ -48428,7 +48433,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="261" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="245">
         <v>374</v>
@@ -48463,7 +48468,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="261" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="245">
         <v>1500</v>
@@ -48498,7 +48503,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="245">
         <v>113</v>
@@ -48533,7 +48538,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="245">
         <v>169</v>
@@ -48568,7 +48573,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="245">
         <v>27</v>
@@ -48604,7 +48609,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="245">
         <v>44</v>
@@ -48639,7 +48644,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="245">
         <v>109</v>
@@ -48674,7 +48679,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="261" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" s="245">
         <v>159</v>
@@ -48709,7 +48714,7 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" customHeight="1">
       <c r="A54" s="261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B54" s="245">
         <v>720</v>
@@ -48744,7 +48749,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="261" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B55" s="245">
         <v>78</v>
@@ -48779,7 +48784,7 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
       <c r="A56" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="68">
         <v>222</v>
@@ -52750,7 +52755,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="243" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="239">
         <v>3563</v>
@@ -52779,7 +52784,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="243" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="239">
         <v>1873</v>
@@ -52808,7 +52813,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="243" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="239">
         <v>1269</v>
@@ -52838,7 +52843,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="239">
         <v>523</v>
@@ -52867,7 +52872,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="239">
         <v>448</v>
@@ -52896,7 +52901,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="243" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="239">
         <v>439</v>
@@ -52925,7 +52930,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="268" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B15" s="239">
         <v>412</v>
@@ -52954,7 +52959,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="239">
         <v>385</v>
@@ -52983,7 +52988,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="243" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="239">
         <v>322</v>
@@ -53012,7 +53017,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="243" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="239">
         <v>313</v>
@@ -53041,7 +53046,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="243" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" s="239">
         <v>301</v>
@@ -53070,7 +53075,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" s="239">
         <v>261</v>
@@ -53099,7 +53104,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="239">
         <v>251</v>
@@ -53128,7 +53133,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="243" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B22" s="239">
         <v>234</v>
@@ -53157,7 +53162,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23" s="239">
         <v>200</v>
@@ -53186,7 +53191,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="239">
         <v>198</v>
@@ -53215,7 +53220,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="243" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="239">
         <v>142</v>
@@ -53244,7 +53249,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="243" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="239">
         <v>106</v>
@@ -53273,7 +53278,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="243" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="239">
         <v>103</v>
@@ -53302,7 +53307,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="243" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="239">
         <v>98</v>
@@ -53331,7 +53336,7 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" thickBot="1">
       <c r="A29" s="244" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="61">
         <v>33</v>
@@ -53406,6 +53411,44 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna-20200429</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -53738,7 +53781,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -53747,45 +53790,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna-20200429</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53804,27 +53826,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>